--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -82,16 +82,16 @@
     <t>Iter</t>
   </si>
   <si>
-    <t>[0, 1, 1, 1]</t>
+    <t>[1, 1, 1, 1]</t>
   </si>
   <si>
     <t>[0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 1]</t>
+    <t>[0, 1, 1, 1]</t>
   </si>
   <si>
-    <t>[1, 1, 1, 1]</t>
+    <t>[0, 0, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -528,37 +528,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>359.6471895308065</v>
       </c>
       <c r="F2">
-        <v>30.01271039385628</v>
+        <v>10.03418043817184</v>
       </c>
       <c r="G2">
-        <v>122.8966893742933</v>
+        <v>98.20707847007661</v>
       </c>
       <c r="H2">
-        <v>11.16981939191036</v>
+        <v>11.86264591493346</v>
       </c>
       <c r="Q2">
-        <v>0.04939030480979016</v>
+        <v>0.04761320993206206</v>
       </c>
       <c r="R2">
-        <v>0.2841121458637048</v>
+        <v>0.1689009760145811</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0002873999999906118</v>
+        <v>0.0002810000000010859</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -566,37 +566,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>359.6751309272673</v>
       </c>
       <c r="F3">
-        <v>23.72785586650624</v>
+        <v>10.0753326825463</v>
       </c>
       <c r="G3">
-        <v>116.6596087319887</v>
+        <v>74.82390174653929</v>
       </c>
       <c r="H3">
-        <v>4.820637150115832</v>
+        <v>12.00010702878842</v>
       </c>
       <c r="Q3">
-        <v>0.04646666999799368</v>
+        <v>0.04451692396398665</v>
       </c>
       <c r="R3">
-        <v>0.4990942225806296</v>
+        <v>0.1762548593538654</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3">
-        <v>0.0002690000000029613</v>
+        <v>0.0004586999999958152</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -604,37 +604,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0.08335156948109022</v>
       </c>
       <c r="F4">
-        <v>24.5981248022976</v>
+        <v>9.961828019244917</v>
       </c>
       <c r="G4">
-        <v>4.349341872503206</v>
+        <v>79.40538299035853</v>
       </c>
       <c r="H4">
-        <v>8.835204526978002</v>
+        <v>3.216278257331518</v>
       </c>
       <c r="Q4">
-        <v>0.04080099942588736</v>
+        <v>0.03992848114271191</v>
       </c>
       <c r="R4">
-        <v>0.425941177491735</v>
+        <v>0.1219620834081769</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4">
-        <v>0.0002713000000085231</v>
+        <v>0.0002795999999989363</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -642,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>359.6422743053139</v>
       </c>
       <c r="F5">
-        <v>29.50560453551284</v>
+        <v>10.12813995939683</v>
       </c>
       <c r="G5">
-        <v>118.3949370446507</v>
+        <v>98.86388031267553</v>
       </c>
       <c r="H5">
-        <v>7.728222557454451</v>
+        <v>11.87630245870441</v>
       </c>
       <c r="Q5">
-        <v>0.05361215639909755</v>
+        <v>0.0513829118970243</v>
       </c>
       <c r="R5">
-        <v>0.3890650005281442</v>
+        <v>0.2000863929211603</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.0003753999999958069</v>
+        <v>0.000407600000002617</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -680,37 +680,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>359.9898876585714</v>
       </c>
       <c r="F6">
-        <v>43.17461605404362</v>
+        <v>9.949566681995332</v>
       </c>
       <c r="G6">
-        <v>99.94981316222639</v>
+        <v>174.1048972954569</v>
       </c>
       <c r="H6">
-        <v>12.72129707607737</v>
+        <v>9.503123511032625</v>
       </c>
       <c r="Q6">
-        <v>0.04075709636947412</v>
+        <v>0.03718324329023417</v>
       </c>
       <c r="R6">
-        <v>0.5626885834791175</v>
+        <v>0.028558383606351</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T6">
-        <v>0.0002837999999769636</v>
+        <v>0.0002764999999982365</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -718,37 +718,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>359.911754502623</v>
       </c>
       <c r="F7">
-        <v>15.01292679362322</v>
+        <v>9.805359044581314</v>
       </c>
       <c r="G7">
-        <v>156.0349436576836</v>
+        <v>39.62976290808216</v>
       </c>
       <c r="H7">
-        <v>7.056213596216062</v>
+        <v>13.30988842020289</v>
       </c>
       <c r="Q7">
-        <v>0.04071562087374959</v>
+        <v>0.04132375874171706</v>
       </c>
       <c r="R7">
-        <v>0.04594992473616732</v>
+        <v>0.08854676328117955</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T7">
-        <v>0.0002736999999797263</v>
+        <v>0.0002824999999972988</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -756,37 +756,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0.0623567346975076</v>
       </c>
       <c r="F8">
-        <v>40.04952447345957</v>
+        <v>9.732866464682893</v>
       </c>
       <c r="G8">
-        <v>62.09183799119361</v>
+        <v>161.2665609897131</v>
       </c>
       <c r="H8">
-        <v>10.78378099750124</v>
+        <v>6.705708406711211</v>
       </c>
       <c r="Q8">
-        <v>0.04123934986958571</v>
+        <v>0.03785498741097096</v>
       </c>
       <c r="R8">
-        <v>0.7227115291296153</v>
+        <v>0.173439041579903</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8">
-        <v>0.0002656000000342829</v>
+        <v>0.0002759999999994989</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -794,37 +794,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>359.66189485924</v>
       </c>
       <c r="F9">
-        <v>8.760455604559708</v>
+        <v>9.538109939446697</v>
       </c>
       <c r="G9">
-        <v>139.8484082033712</v>
+        <v>13.43443473082257</v>
       </c>
       <c r="H9">
-        <v>9.960019261697656</v>
+        <v>12.94981189612835</v>
       </c>
       <c r="Q9">
-        <v>0.05216168827592085</v>
+        <v>0.04626776629890454</v>
       </c>
       <c r="R9">
-        <v>0.3159202415118265</v>
+        <v>0.2885394468293601</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0002739999999903375</v>
+        <v>0.0002954999999928987</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -832,37 +832,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>359.981759056676</v>
       </c>
       <c r="F10">
-        <v>42.35579204890092</v>
+        <v>9.928929591694372</v>
       </c>
       <c r="G10">
-        <v>175.0654845200868</v>
+        <v>157.231856532907</v>
       </c>
       <c r="H10">
-        <v>13.45523091279962</v>
+        <v>14.49861170807448</v>
       </c>
       <c r="Q10">
-        <v>0.04690310765539437</v>
+        <v>0.04454865446521965</v>
       </c>
       <c r="R10">
-        <v>0.1392868655662503</v>
+        <v>0.03794846906734716</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T10">
-        <v>0.0002656999999999243</v>
+        <v>0.0002762999999958993</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -870,37 +870,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>359.9997782890575</v>
       </c>
       <c r="F11">
-        <v>5.369951147218886</v>
+        <v>10.01860103903902</v>
       </c>
       <c r="G11">
-        <v>90.13994790140713</v>
+        <v>1.775995200711086</v>
       </c>
       <c r="H11">
-        <v>9.708633724091444</v>
+        <v>8.859519797835501</v>
       </c>
       <c r="Q11">
-        <v>0.04091618253109354</v>
+        <v>0.03950692669025228</v>
       </c>
       <c r="R11">
-        <v>0.0970689581832688</v>
+        <v>0.05059746168772804</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T11">
-        <v>0.0002459000000385458</v>
+        <v>0.0002821000000068352</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -908,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>359.7336826991741</v>
       </c>
       <c r="F12">
-        <v>32.53615587505277</v>
+        <v>9.998605740234835</v>
       </c>
       <c r="G12">
-        <v>2.64025547463348</v>
+        <v>135.5024480167148</v>
       </c>
       <c r="H12">
-        <v>16.59026475698308</v>
+        <v>3.258551385314836</v>
       </c>
       <c r="Q12">
-        <v>0.04902912334340929</v>
+        <v>0.04472515451594607</v>
       </c>
       <c r="R12">
-        <v>1.553630836961372</v>
+        <v>0.1575248245578497</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T12">
-        <v>0.0002732000000378321</v>
+        <v>0.0003018999999966354</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -946,37 +946,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>359.650109051739</v>
       </c>
       <c r="F13">
-        <v>12.10417555514863</v>
+        <v>9.787806381595329</v>
       </c>
       <c r="G13">
-        <v>3.707676731840194</v>
+        <v>30.54695751042985</v>
       </c>
       <c r="H13">
-        <v>11.06300656063966</v>
+        <v>3.719448371807886</v>
       </c>
       <c r="Q13">
-        <v>0.05583121443259936</v>
+        <v>0.05431916715469014</v>
       </c>
       <c r="R13">
-        <v>0.5920112819500859</v>
+        <v>0.5459114768669213</v>
       </c>
       <c r="S13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13">
-        <v>0.000268100000027971</v>
+        <v>0.0002815999999938867</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -984,37 +984,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>359.905402833702</v>
       </c>
       <c r="F14">
-        <v>12.01356828707727</v>
+        <v>9.908672086480117</v>
       </c>
       <c r="G14">
-        <v>132.8449281049424</v>
+        <v>27.64531489868156</v>
       </c>
       <c r="H14">
-        <v>7.729547757822467</v>
+        <v>11.89002643506845</v>
       </c>
       <c r="Q14">
-        <v>0.04343608267138048</v>
+        <v>0.04376634662592561</v>
       </c>
       <c r="R14">
-        <v>0.07496628385748287</v>
+        <v>0.0434548729135002</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T14">
-        <v>0.0002572999999870262</v>
+        <v>0.0003054000000020096</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0.1424781324101231</v>
       </c>
       <c r="F15">
-        <v>36.704097167169</v>
+        <v>9.784536151964613</v>
       </c>
       <c r="G15">
-        <v>45.72418254159604</v>
+        <v>140.8034196621756</v>
       </c>
       <c r="H15">
-        <v>10.58502095185475</v>
+        <v>5.624254253534374</v>
       </c>
       <c r="Q15">
-        <v>0.0421184229525069</v>
+        <v>0.03917513227754947</v>
       </c>
       <c r="R15">
-        <v>0.7487263852115082</v>
+        <v>0.1886305701194521</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.000276699999972152</v>
+        <v>0.0003163999999884481</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1060,37 +1060,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>359.6897321777494</v>
       </c>
       <c r="F16">
-        <v>28.70171085004265</v>
+        <v>10.04837816098446</v>
       </c>
       <c r="G16">
-        <v>136.3724918172337</v>
+        <v>92.15265481714921</v>
       </c>
       <c r="H16">
-        <v>14.03892276274791</v>
+        <v>12.56191188376601</v>
       </c>
       <c r="Q16">
-        <v>0.05775735279687493</v>
+        <v>0.05495111036820034</v>
       </c>
       <c r="R16">
-        <v>0.2425723877634414</v>
+        <v>0.1523717610078962</v>
       </c>
       <c r="S16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0002853999999956613</v>
+        <v>0.0002781000000027234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1098,37 +1098,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0.06246569630870719</v>
       </c>
       <c r="F17">
-        <v>40.87438059132159</v>
+        <v>9.907660497553209</v>
       </c>
       <c r="G17">
-        <v>46.05962379106413</v>
+        <v>153.3083298904752</v>
       </c>
       <c r="H17">
-        <v>3.336631268521045</v>
+        <v>5.069557406346219</v>
       </c>
       <c r="Q17">
-        <v>0.04317979238670035</v>
+        <v>0.03990816057954989</v>
       </c>
       <c r="R17">
-        <v>1.446967867751692</v>
+        <v>0.0815312717918219</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17">
-        <v>0.0002557999999908134</v>
+        <v>0.0004135000000076161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1136,37 +1136,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>359.9744102557732</v>
       </c>
       <c r="F18">
-        <v>14.71948958913252</v>
+        <v>9.887249187768377</v>
       </c>
       <c r="G18">
-        <v>94.05864054849303</v>
+        <v>40.08556260098875</v>
       </c>
       <c r="H18">
-        <v>10.21464649352869</v>
+        <v>9.135971240659952</v>
       </c>
       <c r="Q18">
-        <v>0.03796088131927276</v>
+        <v>0.03760395842286065</v>
       </c>
       <c r="R18">
-        <v>0.115126834926691</v>
+        <v>0.06611974763349737</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T18">
-        <v>0.0006881000000475979</v>
+        <v>0.0002868999999918742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1174,37 +1174,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>359.9447468219957</v>
       </c>
       <c r="F19">
-        <v>17.98667767207407</v>
+        <v>9.896416631929871</v>
       </c>
       <c r="G19">
-        <v>95.10959617504116</v>
+        <v>52.85472247421963</v>
       </c>
       <c r="H19">
-        <v>6.799051552970162</v>
+        <v>9.279373370761693</v>
       </c>
       <c r="Q19">
-        <v>0.04287442364340042</v>
+        <v>0.04261709910222062</v>
       </c>
       <c r="R19">
-        <v>0.09064739910755</v>
+        <v>0.05909955554341041</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T19">
-        <v>0.0002617999999756648</v>
+        <v>0.0002799000000095475</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1212,37 +1212,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>359.9841143112387</v>
       </c>
       <c r="F20">
-        <v>31.77838160096626</v>
+        <v>9.752008975516691</v>
       </c>
       <c r="G20">
-        <v>91.10465461717597</v>
+        <v>116.9385803928047</v>
       </c>
       <c r="H20">
-        <v>12.55052995250905</v>
+        <v>8.758614353136178</v>
       </c>
       <c r="Q20">
-        <v>0.04617997425142777</v>
+        <v>0.04404050922072322</v>
       </c>
       <c r="R20">
-        <v>0.35212775932767</v>
+        <v>0.1331370745585342</v>
       </c>
       <c r="S20" t="s">
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.0002619999999637912</v>
+        <v>0.0002818000000104348</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1250,37 +1250,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>359.9557993474635</v>
       </c>
       <c r="F21">
-        <v>9.331881149585408</v>
+        <v>9.793365603958598</v>
       </c>
       <c r="G21">
-        <v>136.8770151200083</v>
+        <v>17.27681738004469</v>
       </c>
       <c r="H21">
-        <v>7.413636930715231</v>
+        <v>12.05622927048203</v>
       </c>
       <c r="Q21">
-        <v>0.04122204681663068</v>
+        <v>0.04140642988322443</v>
       </c>
       <c r="R21">
-        <v>0.04354706721888964</v>
+        <v>0.06869731023487478</v>
       </c>
       <c r="S21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T21">
-        <v>0.0002648999999905755</v>
+        <v>0.0002786999999955242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1288,37 +1288,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>359.8232213774765</v>
       </c>
       <c r="F22">
-        <v>31.39159739947108</v>
+        <v>9.782030178064547</v>
       </c>
       <c r="G22">
-        <v>159.6736132929692</v>
+        <v>105.4942306693312</v>
       </c>
       <c r="H22">
-        <v>13.49574677786623</v>
+        <v>13.50509851356698</v>
       </c>
       <c r="Q22">
-        <v>0.04002027403035076</v>
+        <v>0.04086185334824891</v>
       </c>
       <c r="R22">
-        <v>0.1713784922176978</v>
+        <v>0.1383063445386232</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0002599000000031992</v>
+        <v>0.0002789999999919246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1326,37 +1326,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0.01039284990110188</v>
       </c>
       <c r="F23">
-        <v>7.062853948765007</v>
+        <v>9.9332123517133</v>
       </c>
       <c r="G23">
-        <v>51.79097777208165</v>
+        <v>8.547466954461594</v>
       </c>
       <c r="H23">
-        <v>11.93213111723202</v>
+        <v>6.343047697289059</v>
       </c>
       <c r="Q23">
-        <v>0.04249063825742714</v>
+        <v>0.04186183169830058</v>
       </c>
       <c r="R23">
-        <v>0.09571278522841173</v>
+        <v>0.06809982029355184</v>
       </c>
       <c r="S23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T23">
-        <v>0.0002637000000049738</v>
+        <v>0.0002621999999945501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0.01838998397303894</v>
       </c>
       <c r="F24">
-        <v>13.99662065235241</v>
+        <v>9.844638214237346</v>
       </c>
       <c r="G24">
-        <v>86.55506945542544</v>
+        <v>37.2572788822709</v>
       </c>
       <c r="H24">
-        <v>8.853582380611584</v>
+        <v>8.578178162430007</v>
       </c>
       <c r="Q24">
-        <v>0.04113383795450772</v>
+        <v>0.04079672094620955</v>
       </c>
       <c r="R24">
-        <v>0.1483429540881544</v>
+        <v>0.09464598209147007</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T24">
-        <v>0.0002623999999968873</v>
+        <v>0.0002913000000006605</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1402,37 +1402,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>359.8666023887293</v>
       </c>
       <c r="F25">
-        <v>28.26973306854861</v>
+        <v>9.801962465531027</v>
       </c>
       <c r="G25">
-        <v>169.0735978979045</v>
+        <v>92.87279934055468</v>
       </c>
       <c r="H25">
-        <v>12.22795568158669</v>
+        <v>14.09941100907384</v>
       </c>
       <c r="Q25">
-        <v>0.03981849526027087</v>
+        <v>0.04104313816011703</v>
       </c>
       <c r="R25">
-        <v>0.1526382137031659</v>
+        <v>0.118350200172806</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T25">
-        <v>0.0002662999999643034</v>
+        <v>0.000297399999993786</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1440,37 +1440,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>359.7341575654701</v>
       </c>
       <c r="F26">
-        <v>46.07128217491337</v>
+        <v>9.923053308378902</v>
       </c>
       <c r="G26">
-        <v>121.187359463623</v>
+        <v>172.5516519724634</v>
       </c>
       <c r="H26">
-        <v>14.17877953622604</v>
+        <v>11.31183381787411</v>
       </c>
       <c r="Q26">
-        <v>0.05581999787585779</v>
+        <v>0.08386323260433419</v>
       </c>
       <c r="R26">
-        <v>0.3948746875857047</v>
+        <v>0.1036315090474408</v>
       </c>
       <c r="S26" t="s">
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.0003897999999935564</v>
+        <v>0.0003011000000014974</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1478,37 +1478,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>359.9543453820668</v>
       </c>
       <c r="F27">
-        <v>41.44006838117343</v>
+        <v>9.931435186800618</v>
       </c>
       <c r="G27">
-        <v>106.6589083178308</v>
+        <v>156.6046484462741</v>
       </c>
       <c r="H27">
-        <v>7.186542663541555</v>
+        <v>9.899888846841344</v>
       </c>
       <c r="Q27">
-        <v>0.04505004711165882</v>
+        <v>0.04195415992353094</v>
       </c>
       <c r="R27">
-        <v>0.3533254302705198</v>
+        <v>0.04516984629444629</v>
       </c>
       <c r="S27" t="s">
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.0002627000000074986</v>
+        <v>0.0002733000000034735</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1516,37 +1516,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>359.960801357668</v>
       </c>
       <c r="F28">
-        <v>18.56325096168316</v>
+        <v>9.980548797561521</v>
       </c>
       <c r="G28">
-        <v>93.58638166652625</v>
+        <v>55.55104561241537</v>
       </c>
       <c r="H28">
-        <v>12.42485429837273</v>
+        <v>9.171451275628955</v>
       </c>
       <c r="Q28">
-        <v>0.03606736771126197</v>
+        <v>0.03552704268689323</v>
       </c>
       <c r="R28">
-        <v>0.0890464297198294</v>
+        <v>0.03269450360725745</v>
       </c>
       <c r="S28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T28">
-        <v>0.0002578000000426073</v>
+        <v>0.0002809000000070228</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1554,37 +1554,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>359.7428789169535</v>
       </c>
       <c r="F29">
-        <v>24.7105612773498</v>
+        <v>9.89731701763454</v>
       </c>
       <c r="G29">
-        <v>144.6428455308611</v>
+        <v>76.29576543477371</v>
       </c>
       <c r="H29">
-        <v>12.66968246895387</v>
+        <v>12.80494914809939</v>
       </c>
       <c r="Q29">
-        <v>0.04772477413386333</v>
+        <v>0.04746561213699028</v>
       </c>
       <c r="R29">
-        <v>0.2158834395592097</v>
+        <v>0.09560624426778179</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T29">
-        <v>0.0002751000000102977</v>
+        <v>0.0002803999999940743</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1592,37 +1592,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>359.910733524426</v>
       </c>
       <c r="F30">
-        <v>35.75788687008489</v>
+        <v>9.968519267405966</v>
       </c>
       <c r="G30">
-        <v>96.30245275132818</v>
+        <v>131.0239390861823</v>
       </c>
       <c r="H30">
-        <v>5.856121999496048</v>
+        <v>9.721076205620658</v>
       </c>
       <c r="Q30">
-        <v>0.04548972238049695</v>
+        <v>0.04316949549431125</v>
       </c>
       <c r="R30">
-        <v>0.3880359363384236</v>
+        <v>0.03607047886249341</v>
       </c>
       <c r="S30" t="s">
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.0002670000000080108</v>
+        <v>0.0002755999999948244</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1630,37 +1630,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0.08349642526091273</v>
       </c>
       <c r="F31">
-        <v>40.42386124293675</v>
+        <v>9.763705236548507</v>
       </c>
       <c r="G31">
-        <v>73.43642362154243</v>
+        <v>156.1440567495727</v>
       </c>
       <c r="H31">
-        <v>3.695002313634541</v>
+        <v>6.181160680343962</v>
       </c>
       <c r="Q31">
-        <v>0.05125135521623124</v>
+        <v>0.04693954272901231</v>
       </c>
       <c r="R31">
-        <v>1.594193068377859</v>
+        <v>0.1695208742444662</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T31">
-        <v>0.0003611000000205422</v>
+        <v>0.0003010000000074342</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1668,37 +1668,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>0.2528105329552826</v>
       </c>
       <c r="F32">
-        <v>31.39146022842174</v>
+        <v>9.636041733633332</v>
       </c>
       <c r="G32">
-        <v>73.64204241611759</v>
+        <v>116.5084397926718</v>
       </c>
       <c r="H32">
-        <v>9.567881511424183</v>
+        <v>7.065834477734807</v>
       </c>
       <c r="Q32">
-        <v>0.04728651678259004</v>
+        <v>0.04536263324006747</v>
       </c>
       <c r="R32">
-        <v>0.7615024005892437</v>
+        <v>0.3041147047531555</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T32">
-        <v>0.0002566000000001623</v>
+        <v>0.0003357000000079324</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1706,37 +1706,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0.08295144285031669</v>
       </c>
       <c r="F33">
-        <v>17.18548687271074</v>
+        <v>9.776350507779268</v>
       </c>
       <c r="G33">
-        <v>173.178323338587</v>
+        <v>51.27485522756333</v>
       </c>
       <c r="H33">
-        <v>12.12764527245597</v>
+        <v>14.01250519261964</v>
       </c>
       <c r="Q33">
-        <v>0.04260832049243204</v>
+        <v>0.0415768113739841</v>
       </c>
       <c r="R33">
-        <v>0.2160363817600963</v>
+        <v>0.1469789374842095</v>
       </c>
       <c r="S33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T33">
-        <v>0.0002761000000077729</v>
+        <v>0.0002775999999897749</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1744,37 +1744,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0.06977889019788849</v>
       </c>
       <c r="F34">
-        <v>39.59864334320747</v>
+        <v>9.644935336652839</v>
       </c>
       <c r="G34">
-        <v>70.43026348578728</v>
+        <v>155.1244678108648</v>
       </c>
       <c r="H34">
-        <v>8.824205218117628</v>
+        <v>7.078191879350943</v>
       </c>
       <c r="Q34">
-        <v>0.04229010482487092</v>
+        <v>0.03904813035006917</v>
       </c>
       <c r="R34">
-        <v>0.6649039983892346</v>
+        <v>0.2216626351404091</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T34">
-        <v>0.0002843999999981861</v>
+        <v>0.0002998000000076217</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1782,37 +1782,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0.06377070102162243</v>
       </c>
       <c r="F35">
-        <v>15.84116902961238</v>
+        <v>9.932847676965494</v>
       </c>
       <c r="G35">
-        <v>81.39339528543181</v>
+        <v>44.77494559558739</v>
       </c>
       <c r="H35">
-        <v>8.742674836189465</v>
+        <v>8.197719480950941</v>
       </c>
       <c r="Q35">
-        <v>0.0383768293615897</v>
+        <v>0.03803238313033185</v>
       </c>
       <c r="R35">
-        <v>0.1617352624178736</v>
+        <v>0.08832965985471743</v>
       </c>
       <c r="S35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T35">
-        <v>0.0002931000000216955</v>
+        <v>0.0002824999999972988</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1820,37 +1820,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>359.9512329798744</v>
       </c>
       <c r="F36">
-        <v>6.662254808586978</v>
+        <v>9.795350342882225</v>
       </c>
       <c r="G36">
-        <v>140.3300174607076</v>
+        <v>6.763571017466687</v>
       </c>
       <c r="H36">
-        <v>5.832848967538136</v>
+        <v>12.28321617371561</v>
       </c>
       <c r="Q36">
-        <v>0.04025404592804273</v>
+        <v>0.04020467365307259</v>
       </c>
       <c r="R36">
-        <v>0.07219099883961341</v>
+        <v>0.06651132676002901</v>
       </c>
       <c r="S36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T36">
-        <v>0.0002593000000388201</v>
+        <v>0.0002798999999953367</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1858,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>0.3779473420175646</v>
       </c>
       <c r="F37">
-        <v>24.23845506528422</v>
+        <v>9.701375552160382</v>
       </c>
       <c r="G37">
-        <v>66.45981904423557</v>
+        <v>83.27647418775523</v>
       </c>
       <c r="H37">
-        <v>5.302178136489569</v>
+        <v>6.145124980018358</v>
       </c>
       <c r="Q37">
-        <v>0.05301408476586893</v>
+        <v>0.05053225854012848</v>
       </c>
       <c r="R37">
-        <v>1.14569674061027</v>
+        <v>0.3720319128201344</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T37">
-        <v>0.0002600999999913256</v>
+        <v>0.0003310000000027458</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1896,37 +1896,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>359.8647173468491</v>
       </c>
       <c r="F38">
-        <v>35.71059201651678</v>
+        <v>9.935686207182659</v>
       </c>
       <c r="G38">
-        <v>106.6489177646954</v>
+        <v>130.8821242136488</v>
       </c>
       <c r="H38">
-        <v>13.70606828117665</v>
+        <v>10.1747378283514</v>
       </c>
       <c r="Q38">
-        <v>0.04738057928863806</v>
+        <v>0.04559809118360042</v>
       </c>
       <c r="R38">
-        <v>0.3067047997210532</v>
+        <v>0.06168754244550413</v>
       </c>
       <c r="S38" t="s">
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.0002572999999870262</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1934,37 +1934,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0.01089272246750185</v>
       </c>
       <c r="F39">
-        <v>43.52870459257626</v>
+        <v>9.920520801161574</v>
       </c>
       <c r="G39">
-        <v>91.32504172263697</v>
+        <v>170.1282757145184</v>
       </c>
       <c r="H39">
-        <v>5.918647956603721</v>
+        <v>8.474419927595138</v>
       </c>
       <c r="Q39">
-        <v>0.0408142081538919</v>
+        <v>0.03768449653567751</v>
       </c>
       <c r="R39">
-        <v>0.7010405096058733</v>
+        <v>0.04658694998652791</v>
       </c>
       <c r="S39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T39">
-        <v>0.0002690999999686028</v>
+        <v>0.0002783000000050606</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1972,37 +1972,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>359.7982588703766</v>
       </c>
       <c r="F40">
-        <v>22.92383570410028</v>
+        <v>9.884409505240477</v>
       </c>
       <c r="G40">
-        <v>153.7384450174393</v>
+        <v>69.0272274156835</v>
       </c>
       <c r="H40">
-        <v>14.92526243172702</v>
+        <v>13.28255798247473</v>
       </c>
       <c r="Q40">
-        <v>0.0411952421939228</v>
+        <v>0.0412155187357381</v>
       </c>
       <c r="R40">
-        <v>0.2048047623351009</v>
+        <v>0.0818697966926072</v>
       </c>
       <c r="S40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T40">
-        <v>0.0002598000000375578</v>
+        <v>0.0004445000000004029</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2010,37 +2010,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>359.7190320867956</v>
       </c>
       <c r="F41">
-        <v>30.06307521654045</v>
+        <v>9.960522490570719</v>
       </c>
       <c r="G41">
-        <v>140.947083987511</v>
+        <v>98.13008246307378</v>
       </c>
       <c r="H41">
-        <v>13.35268516748347</v>
+        <v>12.65455821214129</v>
       </c>
       <c r="Q41">
-        <v>0.05337439867577058</v>
+        <v>0.05344549083223191</v>
       </c>
       <c r="R41">
-        <v>0.1907601027600319</v>
+        <v>0.1004298096474545</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T41">
-        <v>0.0002695000000016989</v>
+        <v>0.0002804000000082851</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2048,37 +2048,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0.1215095394422438</v>
       </c>
       <c r="F42">
-        <v>23.39906144024095</v>
+        <v>9.980545592172756</v>
       </c>
       <c r="G42">
-        <v>10.21593364217992</v>
+        <v>74.62928198801315</v>
       </c>
       <c r="H42">
-        <v>10.89012123983447</v>
+        <v>3.529976531376766</v>
       </c>
       <c r="Q42">
-        <v>0.04397540328686486</v>
+        <v>0.0430378923444923</v>
       </c>
       <c r="R42">
-        <v>0.427534249944588</v>
+        <v>0.1564643259777156</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42">
-        <v>0.0002660999999761771</v>
+        <v>0.0003109999999963975</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2086,37 +2086,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0.05414246461346952</v>
       </c>
       <c r="F43">
-        <v>16.26041550507637</v>
+        <v>9.99430969985908</v>
       </c>
       <c r="G43">
-        <v>8.1918964826184</v>
+        <v>45.4906169751107</v>
       </c>
       <c r="H43">
-        <v>11.22866604890907</v>
+        <v>3.470887684385969</v>
       </c>
       <c r="Q43">
-        <v>0.04290640744104777</v>
+        <v>0.04245815373892634</v>
       </c>
       <c r="R43">
-        <v>0.1339651730673108</v>
+        <v>0.08047286261557002</v>
       </c>
       <c r="S43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T43">
-        <v>0.0002627000000074986</v>
+        <v>0.0003836000000063677</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2124,37 +2124,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>359.9006571693977</v>
       </c>
       <c r="F44">
-        <v>21.93052396895568</v>
+        <v>9.820095478803292</v>
       </c>
       <c r="G44">
-        <v>170.5363971867103</v>
+        <v>67.0784139647146</v>
       </c>
       <c r="H44">
-        <v>12.26867357702883</v>
+        <v>14.22002859140945</v>
       </c>
       <c r="Q44">
-        <v>0.03907536886182804</v>
+        <v>0.03892158122060204</v>
       </c>
       <c r="R44">
-        <v>0.05585581098699358</v>
+        <v>0.09600368177398237</v>
       </c>
       <c r="S44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T44">
-        <v>0.0005362000000559419</v>
+        <v>0.0002799000000095475</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2162,37 +2162,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>359.948520014931</v>
       </c>
       <c r="F45">
-        <v>10.12902408104491</v>
+        <v>9.882303838702281</v>
       </c>
       <c r="G45">
-        <v>109.3937109544453</v>
+        <v>20.52303043990121</v>
       </c>
       <c r="H45">
-        <v>6.306541675902317</v>
+        <v>10.28278825144727</v>
       </c>
       <c r="Q45">
-        <v>0.0414791357102197</v>
+        <v>0.04154444334972083</v>
       </c>
       <c r="R45">
-        <v>0.0375599689921011</v>
+        <v>0.043463582849924</v>
       </c>
       <c r="S45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T45">
-        <v>0.0002574000000095111</v>
+        <v>0.0003178000000048087</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2200,37 +2200,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0.1501229434511689</v>
       </c>
       <c r="F46">
-        <v>39.33231456395861</v>
+        <v>9.820488131799591</v>
       </c>
       <c r="G46">
-        <v>25.70295974354875</v>
+        <v>152.1018095729092</v>
       </c>
       <c r="H46">
-        <v>6.614461295489602</v>
+        <v>4.137015293098528</v>
       </c>
       <c r="Q46">
-        <v>0.04611979756831187</v>
+        <v>0.04339112687299881</v>
       </c>
       <c r="R46">
-        <v>1.506616712565578</v>
+        <v>0.1839838420707278</v>
       </c>
       <c r="S46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T46">
-        <v>0.0002553999999577172</v>
+        <v>0.0002783999999991238</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2238,37 +2238,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>359.9947250454301</v>
       </c>
       <c r="F47">
-        <v>44.70820577233363</v>
+        <v>9.964810395205243</v>
       </c>
       <c r="G47">
-        <v>102.0943521266126</v>
+        <v>178.0446859491762</v>
       </c>
       <c r="H47">
-        <v>6.790240820654296</v>
+        <v>9.550624475048991</v>
       </c>
       <c r="Q47">
-        <v>0.03930980486433806</v>
+        <v>0.03602708821071945</v>
       </c>
       <c r="R47">
-        <v>0.5699054857896768</v>
+        <v>0.01919100341662196</v>
       </c>
       <c r="S47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T47">
-        <v>0.0003242999999883978</v>
+        <v>0.0002831999999983736</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2276,37 +2276,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>359.8830248320259</v>
       </c>
       <c r="F48">
-        <v>37.33353589389647</v>
+        <v>9.875308578592131</v>
       </c>
       <c r="G48">
-        <v>110.7087744291865</v>
+        <v>140.9204712912537</v>
       </c>
       <c r="H48">
-        <v>6.770945876599387</v>
+        <v>10.4730963322014</v>
       </c>
       <c r="Q48">
-        <v>0.04573131417185981</v>
+        <v>0.04420400140583124</v>
       </c>
       <c r="R48">
-        <v>0.4800373863881975</v>
+        <v>0.08837798865484844</v>
       </c>
       <c r="S48" t="s">
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.0002609000000006745</v>
+        <v>0.0002812999999974863</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2314,37 +2314,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0.1696018951532245</v>
       </c>
       <c r="F49">
-        <v>10.07959839528761</v>
+        <v>9.989638452317335</v>
       </c>
       <c r="G49">
-        <v>175.6187718540021</v>
+        <v>20.37856916776329</v>
       </c>
       <c r="H49">
-        <v>12.23333568363951</v>
+        <v>14.11793572171392</v>
       </c>
       <c r="Q49">
-        <v>0.05595941660595478</v>
+        <v>0.03920211745351822</v>
       </c>
       <c r="R49">
-        <v>0.06320042418012918</v>
+        <v>0.143338249655853</v>
       </c>
       <c r="S49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T49">
-        <v>0.0002754999999865504</v>
+        <v>0.0002890999999891619</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2352,37 +2352,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0.1987262639856959</v>
       </c>
       <c r="F50">
-        <v>5.761836727806973</v>
+        <v>10.28536344563421</v>
       </c>
       <c r="G50">
-        <v>160.6968316285452</v>
+        <v>2.873822647330748</v>
       </c>
       <c r="H50">
-        <v>7.783161939408371</v>
+        <v>12.97092807666051</v>
       </c>
       <c r="Q50">
-        <v>0.05537096422878517</v>
+        <v>0.04521758557774747</v>
       </c>
       <c r="R50">
-        <v>0.08313510826411653</v>
+        <v>0.2369514589488624</v>
       </c>
       <c r="S50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T50">
-        <v>0.000266199999998662</v>
+        <v>0.0002746999999914124</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2390,37 +2390,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>0.2086318156413209</v>
       </c>
       <c r="F51">
-        <v>17.89823336750354</v>
+        <v>9.937756970135549</v>
       </c>
       <c r="G51">
-        <v>45.0989861608676</v>
+        <v>54.94394423989306</v>
       </c>
       <c r="H51">
-        <v>12.93517979016938</v>
+        <v>5.626395720574855</v>
       </c>
       <c r="Q51">
-        <v>0.04623776913728347</v>
+        <v>0.04574723889719809</v>
       </c>
       <c r="R51">
-        <v>0.3586359348913256</v>
+        <v>0.223601285169103</v>
       </c>
       <c r="S51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T51">
-        <v>0.00026410000003807</v>
+        <v>0.0002788999999978614</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2428,37 +2428,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>0.3120704217367269</v>
       </c>
       <c r="F52">
-        <v>25.99003984233229</v>
+        <v>9.738501994104794</v>
       </c>
       <c r="G52">
-        <v>49.97183173431608</v>
+        <v>90.00325348880943</v>
       </c>
       <c r="H52">
-        <v>5.200123305095472</v>
+        <v>5.313761867883177</v>
       </c>
       <c r="Q52">
-        <v>0.05086934346338652</v>
+        <v>0.0491800531533715</v>
       </c>
       <c r="R52">
-        <v>1.157598808269381</v>
+        <v>0.3304069895326228</v>
       </c>
       <c r="S52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T52">
-        <v>0.000265500000011798</v>
+        <v>0.0002790000000061355</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2466,37 +2466,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0.05810063466972768</v>
       </c>
       <c r="F53">
-        <v>34.83307626723808</v>
+        <v>9.973112361666155</v>
       </c>
       <c r="G53">
-        <v>8.658510046147477</v>
+        <v>122.3796895001638</v>
       </c>
       <c r="H53">
-        <v>6.018363449519704</v>
+        <v>3.501724783745998</v>
       </c>
       <c r="Q53">
-        <v>0.04239706320503114</v>
+        <v>0.04014741393604638</v>
       </c>
       <c r="R53">
-        <v>0.7726783628408882</v>
+        <v>0.06232270164574433</v>
       </c>
       <c r="S53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T53">
-        <v>0.000277900000014597</v>
+        <v>0.0002872000000024855</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2504,37 +2504,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>359.8961048318772</v>
       </c>
       <c r="F54">
-        <v>38.11324020214062</v>
+        <v>10.00199545695671</v>
       </c>
       <c r="G54">
-        <v>3.388644291897912</v>
+        <v>146.9563803374313</v>
       </c>
       <c r="H54">
-        <v>8.836930803340573</v>
+        <v>3.306256899169319</v>
       </c>
       <c r="Q54">
-        <v>0.04003067098214779</v>
+        <v>0.03712951868421072</v>
       </c>
       <c r="R54">
-        <v>0.8226845583795901</v>
+        <v>0.06179482771163632</v>
       </c>
       <c r="S54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T54">
-        <v>0.0003461999999672116</v>
+        <v>0.0002876000000071599</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2542,37 +2542,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>359.9588270266299</v>
       </c>
       <c r="F55">
-        <v>39.89413702590238</v>
+        <v>9.842434597981768</v>
       </c>
       <c r="G55">
-        <v>101.8926021777281</v>
+        <v>152.4152836101308</v>
       </c>
       <c r="H55">
-        <v>8.662056134576213</v>
+        <v>9.534529153193224</v>
       </c>
       <c r="Q55">
-        <v>0.0450158181595181</v>
+        <v>0.0421578969162757</v>
       </c>
       <c r="R55">
-        <v>0.3884766131143668</v>
+        <v>0.08818244251745613</v>
       </c>
       <c r="S55" t="s">
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.0002595000000269465</v>
+        <v>0.0002793000000025359</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2580,37 +2580,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>0.3704421489225846</v>
       </c>
       <c r="F56">
-        <v>22.91936513027343</v>
+        <v>9.789684048841131</v>
       </c>
       <c r="G56">
-        <v>74.86721005281079</v>
+        <v>76.26185025191207</v>
       </c>
       <c r="H56">
-        <v>5.444609168656171</v>
+        <v>6.865972570836796</v>
       </c>
       <c r="Q56">
-        <v>0.04922140320983964</v>
+        <v>0.0470316634883823</v>
       </c>
       <c r="R56">
-        <v>0.9112066351724271</v>
+        <v>0.3108374638065975</v>
       </c>
       <c r="S56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T56">
-        <v>0.0002741999999784639</v>
+        <v>0.0002743000000009488</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2618,37 +2618,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>0.3247462229268011</v>
       </c>
       <c r="F57">
-        <v>9.047440193464345</v>
+        <v>10.16148094002821</v>
       </c>
       <c r="G57">
-        <v>175.4828219907144</v>
+        <v>16.77460847608889</v>
       </c>
       <c r="H57">
-        <v>9.621685897163067</v>
+        <v>13.77761867807157</v>
       </c>
       <c r="Q57">
-        <v>0.1007999573887271</v>
+        <v>0.04774244356458292</v>
       </c>
       <c r="R57">
-        <v>0.1767550104938624</v>
+        <v>0.258931603838594</v>
       </c>
       <c r="S57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T57">
-        <v>0.0002604000000019369</v>
+        <v>0.0002857000000062726</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>0.207528635100521</v>
       </c>
       <c r="F58">
-        <v>42.41813279320525</v>
+        <v>9.491587263327304</v>
       </c>
       <c r="G58">
-        <v>72.52610249348372</v>
+        <v>178.7450150986489</v>
       </c>
       <c r="H58">
-        <v>7.97276993503425</v>
+        <v>6.500472280113232</v>
       </c>
       <c r="Q58">
-        <v>0.04967122483927222</v>
+        <v>0.1002301110784772</v>
       </c>
       <c r="R58">
-        <v>1.398790977772634</v>
+        <v>0.3550965221901025</v>
       </c>
       <c r="S58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T58">
-        <v>0.0002636000000393324</v>
+        <v>0.0002793000000025359</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2694,37 +2694,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0.02621043146937827</v>
       </c>
       <c r="F59">
-        <v>8.833411697062296</v>
+        <v>9.957015666875677</v>
       </c>
       <c r="G59">
-        <v>41.29613714032283</v>
+        <v>15.545573624768</v>
       </c>
       <c r="H59">
-        <v>8.952305685832131</v>
+        <v>5.638284676440314</v>
       </c>
       <c r="Q59">
-        <v>0.04075394744803792</v>
+        <v>0.04040175811906076</v>
       </c>
       <c r="R59">
-        <v>0.07289828434628623</v>
+        <v>0.0734085168331618</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T59">
-        <v>0.0002757999999971616</v>
+        <v>0.0002964999999903739</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2732,37 +2732,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0.1520372292349083</v>
       </c>
       <c r="F60">
-        <v>20.61788646369055</v>
+        <v>9.865808192760181</v>
       </c>
       <c r="G60">
-        <v>82.58437014630113</v>
+        <v>65.83509453498831</v>
       </c>
       <c r="H60">
-        <v>9.204936592403849</v>
+        <v>8.119301095767854</v>
       </c>
       <c r="Q60">
-        <v>0.04213878989492707</v>
+        <v>0.04127003380016641</v>
       </c>
       <c r="R60">
-        <v>0.3249974344343284</v>
+        <v>0.1509739522644584</v>
       </c>
       <c r="S60" t="s">
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.0002655999999774394</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2770,37 +2770,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>0.3338567042789481</v>
       </c>
       <c r="F61">
-        <v>41.16190363088794</v>
+        <v>9.646068048316286</v>
       </c>
       <c r="G61">
-        <v>43.11830437590873</v>
+        <v>169.4220297599798</v>
       </c>
       <c r="H61">
-        <v>6.276912101805853</v>
+        <v>4.682988474577908</v>
       </c>
       <c r="Q61">
-        <v>0.05518927287017366</v>
+        <v>0.06286207986795855</v>
       </c>
       <c r="R61">
-        <v>1.996910646734762</v>
+        <v>0.3278549482650149</v>
       </c>
       <c r="S61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T61">
-        <v>0.0002784999999789761</v>
+        <v>0.0002851999999933241</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2808,37 +2808,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0.1843541986426154</v>
       </c>
       <c r="F62">
-        <v>18.27026251003434</v>
+        <v>9.946166032148364</v>
       </c>
       <c r="G62">
-        <v>35.20907050734311</v>
+        <v>54.91849371594426</v>
       </c>
       <c r="H62">
-        <v>7.212680870939361</v>
+        <v>4.967167491742424</v>
       </c>
       <c r="Q62">
-        <v>0.04762620428950165</v>
+        <v>0.04712169234379025</v>
       </c>
       <c r="R62">
-        <v>0.4187592506293784</v>
+        <v>0.2057754209026584</v>
       </c>
       <c r="S62" t="s">
         <v>24</v>
       </c>
       <c r="T62">
-        <v>0.0002665000000092732</v>
+        <v>0.0002889000000010356</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2846,37 +2846,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0.08629911031195799</v>
       </c>
       <c r="F63">
-        <v>38.31507733705596</v>
+        <v>9.8746628083125</v>
       </c>
       <c r="G63">
-        <v>34.94343416094871</v>
+        <v>149.0854150542999</v>
       </c>
       <c r="H63">
-        <v>10.78538228805757</v>
+        <v>5.066475545597853</v>
       </c>
       <c r="Q63">
-        <v>0.04530896767860652</v>
+        <v>0.04095775167839688</v>
       </c>
       <c r="R63">
-        <v>0.7713001579909278</v>
+        <v>0.112480220934358</v>
       </c>
       <c r="S63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T63">
-        <v>0.0002663999999867883</v>
+        <v>0.0002803000000000111</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2884,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0.002465085260736356</v>
       </c>
       <c r="F64">
-        <v>6.235983393189633</v>
+        <v>9.852087246320366</v>
       </c>
       <c r="G64">
-        <v>87.59623250086209</v>
+        <v>5.862518095912399</v>
       </c>
       <c r="H64">
-        <v>12.7406095370125</v>
+        <v>8.832917534188949</v>
       </c>
       <c r="Q64">
-        <v>0.04009795029720823</v>
+        <v>0.03848997267193802</v>
       </c>
       <c r="R64">
-        <v>0.2178077549604209</v>
+        <v>0.04085402945206628</v>
       </c>
       <c r="S64" t="s">
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.0002515000000471446</v>
+        <v>0.0003306999999921345</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2922,37 +2922,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>0.4277957307036171</v>
       </c>
       <c r="F65">
-        <v>28.03362813795627</v>
+        <v>9.51921432923716</v>
       </c>
       <c r="G65">
-        <v>108.9617423139997</v>
+        <v>100.5723885192552</v>
       </c>
       <c r="H65">
-        <v>3.977630673809805</v>
+        <v>6.985118472312026</v>
       </c>
       <c r="Q65">
-        <v>0.06256498561096033</v>
+        <v>0.05603570225313025</v>
       </c>
       <c r="R65">
-        <v>1.839146081100781</v>
+        <v>0.4568364083969333</v>
       </c>
       <c r="S65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T65">
-        <v>0.0002584999999726278</v>
+        <v>0.0003224000000017213</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2960,37 +2960,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>359.7799354121537</v>
       </c>
       <c r="F66">
-        <v>21.82512252718396</v>
+        <v>9.8820349723155</v>
       </c>
       <c r="G66">
-        <v>100.1797957963941</v>
+        <v>67.69535743966998</v>
       </c>
       <c r="H66">
-        <v>11.04719010511712</v>
+        <v>9.874418656121634</v>
       </c>
       <c r="Q66">
-        <v>0.05166867242624291</v>
+        <v>0.05055922235896792</v>
       </c>
       <c r="R66">
-        <v>0.140991505631318</v>
+        <v>0.1058905166202674</v>
       </c>
       <c r="S66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T66">
-        <v>0.0002585999999951127</v>
+        <v>0.0002960000000058471</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2998,37 +2998,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0.1667329646265426</v>
       </c>
       <c r="F67">
-        <v>15.23358721563389</v>
+        <v>10.04006115084939</v>
       </c>
       <c r="G67">
-        <v>5.331498876313709</v>
+        <v>40.60111873707223</v>
       </c>
       <c r="H67">
-        <v>6.738612679813863</v>
+        <v>3.110602400857962</v>
       </c>
       <c r="Q67">
-        <v>0.04097442360335991</v>
+        <v>0.04056493105817443</v>
       </c>
       <c r="R67">
-        <v>0.4537630371908954</v>
+        <v>0.2765858963958295</v>
       </c>
       <c r="S67" t="s">
         <v>24</v>
       </c>
       <c r="T67">
-        <v>0.0003748999999970692</v>
+        <v>0.0002799999999893998</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3036,37 +3036,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>359.7168771271872</v>
       </c>
       <c r="F68">
-        <v>11.70633620074188</v>
+        <v>9.837955883308217</v>
       </c>
       <c r="G68">
-        <v>23.57815732574816</v>
+        <v>26.97511177910003</v>
       </c>
       <c r="H68">
-        <v>9.148828392604386</v>
+        <v>5.017864986273278</v>
       </c>
       <c r="Q68">
-        <v>0.04975703472945116</v>
+        <v>0.05036354732671553</v>
       </c>
       <c r="R68">
-        <v>0.2672577963458423</v>
+        <v>0.3422019951913418</v>
       </c>
       <c r="S68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T68">
-        <v>0.0002678000000173597</v>
+        <v>0.000344299999994746</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3074,37 +3074,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>359.7742955695559</v>
       </c>
       <c r="F69">
-        <v>29.6668818305309</v>
+        <v>9.895219055594419</v>
       </c>
       <c r="G69">
-        <v>151.7977379014622</v>
+        <v>97.98605716684088</v>
       </c>
       <c r="H69">
-        <v>11.59443562237048</v>
+        <v>13.25723825382672</v>
       </c>
       <c r="Q69">
-        <v>0.04809647097492106</v>
+        <v>0.0486024566656482</v>
       </c>
       <c r="R69">
-        <v>0.1879337772424306</v>
+        <v>0.08978350058111791</v>
       </c>
       <c r="S69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T69">
-        <v>0.000260999999966316</v>
+        <v>0.0002829999999960364</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3112,37 +3112,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0.1888952728743358</v>
       </c>
       <c r="F70">
-        <v>16.9317686323484</v>
+        <v>9.972438692922989</v>
       </c>
       <c r="G70">
-        <v>7.655700238303939</v>
+        <v>48.10485311516366</v>
       </c>
       <c r="H70">
-        <v>9.08875555856774</v>
+        <v>3.215887686361427</v>
       </c>
       <c r="Q70">
-        <v>0.04496257121176137</v>
+        <v>0.04481222415862258</v>
       </c>
       <c r="R70">
-        <v>0.4770225705008084</v>
+        <v>0.3034717433809809</v>
       </c>
       <c r="S70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T70">
-        <v>0.0008776000000239037</v>
+        <v>0.0002930999999932737</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3150,37 +3150,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>359.8168985802904</v>
       </c>
       <c r="F71">
-        <v>18.50818987210672</v>
+        <v>9.828741921123331</v>
       </c>
       <c r="G71">
-        <v>143.9810951695359</v>
+        <v>52.99293808589305</v>
       </c>
       <c r="H71">
-        <v>8.591909167343664</v>
+        <v>12.65890804253089</v>
       </c>
       <c r="Q71">
-        <v>0.0466431585482274</v>
+        <v>0.0465466180685958</v>
       </c>
       <c r="R71">
-        <v>0.1294250091043874</v>
+        <v>0.09243306088701897</v>
       </c>
       <c r="S71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T71">
-        <v>0.0003236000000015338</v>
+        <v>0.0003023000000013099</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3188,37 +3188,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>359.8298005183396</v>
       </c>
       <c r="F72">
-        <v>43.67540912589817</v>
+        <v>9.933592340823981</v>
       </c>
       <c r="G72">
-        <v>152.9857225019174</v>
+        <v>166.8029884587364</v>
       </c>
       <c r="H72">
-        <v>9.101360921376958</v>
+        <v>13.38151914442521</v>
       </c>
       <c r="Q72">
-        <v>0.04809366771616128</v>
+        <v>0.05231426868821556</v>
       </c>
       <c r="R72">
-        <v>0.6551899064780711</v>
+        <v>0.07346427511449763</v>
       </c>
       <c r="S72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T72">
-        <v>0.0002597999999807143</v>
+        <v>0.0002877999999952863</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3226,37 +3226,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0.08612062994596124</v>
       </c>
       <c r="F73">
-        <v>12.93227885613392</v>
+        <v>9.937614566086804</v>
       </c>
       <c r="G73">
-        <v>69.56888010624617</v>
+        <v>33.48928499581767</v>
       </c>
       <c r="H73">
-        <v>12.66703707849079</v>
+        <v>7.355420711550226</v>
       </c>
       <c r="Q73">
-        <v>0.03815942635782292</v>
+        <v>0.03780334605206502</v>
       </c>
       <c r="R73">
-        <v>0.1966300974260456</v>
+        <v>0.1269379220122377</v>
       </c>
       <c r="S73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T73">
-        <v>0.0003677999999922577</v>
+        <v>0.0002890000000093096</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3264,37 +3264,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>359.9362909001869</v>
       </c>
       <c r="F74">
-        <v>9.643277284081554</v>
+        <v>9.840428397319705</v>
       </c>
       <c r="G74">
-        <v>122.9992705395645</v>
+        <v>19.00009213448689</v>
       </c>
       <c r="H74">
-        <v>10.1476275738146</v>
+        <v>11.20715937465551</v>
       </c>
       <c r="Q74">
-        <v>0.04605718887660003</v>
+        <v>0.04499488868849391</v>
       </c>
       <c r="R74">
-        <v>0.09647311327690011</v>
+        <v>0.04894636206177531</v>
       </c>
       <c r="S74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T74">
-        <v>0.0002734999999915999</v>
+        <v>0.0003039999999998599</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3302,37 +3302,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>359.884637389738</v>
       </c>
       <c r="F75">
-        <v>32.75061980817004</v>
+        <v>9.961933419762511</v>
       </c>
       <c r="G75">
-        <v>94.42881471656185</v>
+        <v>115.4083841155199</v>
       </c>
       <c r="H75">
-        <v>9.852167654301708</v>
+        <v>9.464451868380348</v>
       </c>
       <c r="Q75">
-        <v>0.03901993699220899</v>
+        <v>0.03779290658995953</v>
       </c>
       <c r="R75">
-        <v>0.2153406017267629</v>
+        <v>0.04234445905639658</v>
       </c>
       <c r="S75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T75">
-        <v>0.0002610999999888008</v>
+        <v>0.0002845000000064601</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3340,37 +3340,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>359.8783309012385</v>
       </c>
       <c r="F76">
-        <v>14.14811302911844</v>
+        <v>9.902163655903252</v>
       </c>
       <c r="G76">
-        <v>140.9984570346479</v>
+        <v>36.27103021886878</v>
       </c>
       <c r="H76">
-        <v>13.70379698000555</v>
+        <v>12.42270941600562</v>
       </c>
       <c r="Q76">
-        <v>0.03868956044798234</v>
+        <v>0.0380522047030285</v>
       </c>
       <c r="R76">
-        <v>0.05979917003822342</v>
+        <v>0.05149673062065492</v>
       </c>
       <c r="S76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T76">
-        <v>0.0002683000000160973</v>
+        <v>0.0004410999999890919</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3378,37 +3378,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0.1419004267952209</v>
       </c>
       <c r="F77">
-        <v>29.64071387656927</v>
+        <v>9.871891782780615</v>
       </c>
       <c r="G77">
-        <v>12.44467579061482</v>
+        <v>103.728151557123</v>
       </c>
       <c r="H77">
-        <v>10.56798016073923</v>
+        <v>3.630624135633776</v>
       </c>
       <c r="Q77">
-        <v>0.03935081166946353</v>
+        <v>0.03817796719914347</v>
       </c>
       <c r="R77">
-        <v>0.6988206522090016</v>
+        <v>0.1959205940318263</v>
       </c>
       <c r="S77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T77">
-        <v>0.0002645999999799642</v>
+        <v>0.0002867000000037478</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3416,37 +3416,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>359.8119397378562</v>
       </c>
       <c r="F78">
-        <v>19.27791376192286</v>
+        <v>9.933698518053431</v>
       </c>
       <c r="G78">
-        <v>145.4612874886531</v>
+        <v>55.73480454764001</v>
       </c>
       <c r="H78">
-        <v>8.467799438893294</v>
+        <v>12.93026250924238</v>
       </c>
       <c r="Q78">
-        <v>0.04206020597928778</v>
+        <v>0.04165935181463078</v>
       </c>
       <c r="R78">
-        <v>0.1574518143640585</v>
+        <v>0.08338897285532712</v>
       </c>
       <c r="S78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T78">
-        <v>0.0002620999999862761</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3454,37 +3454,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>359.9551110295849</v>
       </c>
       <c r="F79">
-        <v>42.797126725589</v>
+        <v>9.982456543045034</v>
       </c>
       <c r="G79">
-        <v>115.630570302493</v>
+        <v>165.3860886956809</v>
       </c>
       <c r="H79">
-        <v>11.39422544593927</v>
+        <v>10.68823549541967</v>
       </c>
       <c r="Q79">
-        <v>0.04549737677759738</v>
+        <v>0.04192435606397894</v>
       </c>
       <c r="R79">
-        <v>0.3680929340478492</v>
+        <v>0.01971377552080943</v>
       </c>
       <c r="S79" t="s">
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.0002754999999865504</v>
+        <v>0.0002762999999958993</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3492,37 +3492,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>359.9755907725551</v>
       </c>
       <c r="F80">
-        <v>6.839217010283826</v>
+        <v>9.882759188148015</v>
       </c>
       <c r="G80">
-        <v>122.4053118321727</v>
+        <v>8.573369334223795</v>
       </c>
       <c r="H80">
-        <v>12.23567040731539</v>
+        <v>11.08292348691683</v>
       </c>
       <c r="Q80">
-        <v>0.04785550783320457</v>
+        <v>0.04383287761519489</v>
       </c>
       <c r="R80">
-        <v>0.2314084096579517</v>
+        <v>0.04795818494056475</v>
       </c>
       <c r="S80" t="s">
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.0002799000000095475</v>
+        <v>0.0002892999999914991</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3530,37 +3530,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>0.6632717641540169</v>
       </c>
       <c r="F81">
-        <v>24.40600221461584</v>
+        <v>9.45510743003496</v>
       </c>
       <c r="G81">
-        <v>96.60558262180061</v>
+        <v>90.98078760692776</v>
       </c>
       <c r="H81">
-        <v>7.428665305356753</v>
+        <v>7.577527107411905</v>
       </c>
       <c r="Q81">
-        <v>0.07205609361985198</v>
+        <v>0.0661296799961191</v>
       </c>
       <c r="R81">
-        <v>1.308070311626629</v>
+        <v>0.5796740026803551</v>
       </c>
       <c r="S81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T81">
-        <v>0.0002637000000049738</v>
+        <v>0.0007095999999933156</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3568,37 +3568,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>359.6200294127704</v>
       </c>
       <c r="F82">
-        <v>28.59285422999799</v>
+        <v>10.13106617698497</v>
       </c>
       <c r="G82">
-        <v>115.937173685666</v>
+        <v>93.55748417187459</v>
       </c>
       <c r="H82">
-        <v>7.683452059118872</v>
+        <v>11.81108174720982</v>
       </c>
       <c r="Q82">
-        <v>0.05150291501001505</v>
+        <v>0.04929495392002642</v>
       </c>
       <c r="R82">
-        <v>0.3550797733972987</v>
+        <v>0.2182896719742525</v>
       </c>
       <c r="S82" t="s">
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.0002747000000340449</v>
+        <v>0.0002814000000057604</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3606,37 +3606,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>0.2719800684437436</v>
       </c>
       <c r="F83">
-        <v>19.74519548925628</v>
+        <v>9.826620561673819</v>
       </c>
       <c r="G83">
-        <v>62.21819727503384</v>
+        <v>64.42574867850976</v>
       </c>
       <c r="H83">
-        <v>12.67491185011666</v>
+        <v>6.654285481790261</v>
       </c>
       <c r="Q83">
-        <v>0.04435308842452015</v>
+        <v>0.0436085804621538</v>
       </c>
       <c r="R83">
-        <v>0.4776689219741866</v>
+        <v>0.2618479974947925</v>
       </c>
       <c r="S83" t="s">
         <v>24</v>
       </c>
       <c r="T83">
-        <v>0.0002623000000312459</v>
+        <v>0.0006036000000051445</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3644,37 +3644,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>359.8318699194488</v>
       </c>
       <c r="F84">
-        <v>17.49217336138063</v>
+        <v>9.871300619876051</v>
       </c>
       <c r="G84">
-        <v>114.1278778679272</v>
+        <v>49.05847292543319</v>
       </c>
       <c r="H84">
-        <v>11.44692309038674</v>
+        <v>10.78140087777774</v>
       </c>
       <c r="Q84">
-        <v>0.03865067097184979</v>
+        <v>0.03819427684351229</v>
       </c>
       <c r="R84">
-        <v>0.1218856762051621</v>
+        <v>0.1014554546847707</v>
       </c>
       <c r="S84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T84">
-        <v>0.000265500000011798</v>
+        <v>0.000317199999997797</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3682,37 +3682,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>359.8301374227926</v>
       </c>
       <c r="F85">
-        <v>16.62769234640229</v>
+        <v>9.893304897124015</v>
       </c>
       <c r="G85">
-        <v>122.4963488282506</v>
+        <v>46.02654346298199</v>
       </c>
       <c r="H85">
-        <v>11.77492175727311</v>
+        <v>11.25358670840203</v>
       </c>
       <c r="Q85">
-        <v>0.04193252095682391</v>
+        <v>0.04142680057510936</v>
       </c>
       <c r="R85">
-        <v>0.0929725803975751</v>
+        <v>0.07701484851614315</v>
       </c>
       <c r="S85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T85">
-        <v>0.0002731999999809887</v>
+        <v>0.0002897000000103844</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3720,37 +3720,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0.02632244039511911</v>
       </c>
       <c r="F86">
-        <v>7.001138478442468</v>
+        <v>10.0143347164714</v>
       </c>
       <c r="G86">
-        <v>66.51587323228996</v>
+        <v>8.161140250109106</v>
       </c>
       <c r="H86">
-        <v>7.288457776939395</v>
+        <v>7.186466223168506</v>
       </c>
       <c r="Q86">
-        <v>0.04104068709996887</v>
+        <v>0.04073306311400094</v>
       </c>
       <c r="R86">
-        <v>0.07181101426279179</v>
+        <v>0.09826191223709151</v>
       </c>
       <c r="S86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T86">
-        <v>0.0002771999999708896</v>
+        <v>0.0002931000000074846</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3758,37 +3758,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>359.9646298557842</v>
       </c>
       <c r="F87">
-        <v>31.2765392478076</v>
+        <v>9.831181550154618</v>
       </c>
       <c r="G87">
-        <v>90.32806316923572</v>
+        <v>111.4208573167079</v>
       </c>
       <c r="H87">
-        <v>7.506590400878618</v>
+        <v>8.917442295961745</v>
       </c>
       <c r="Q87">
-        <v>0.04114784966687991</v>
+        <v>0.03994954421574262</v>
       </c>
       <c r="R87">
-        <v>0.273014248420507</v>
+        <v>0.09529335404923411</v>
       </c>
       <c r="S87" t="s">
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.0004352999999923668</v>
+        <v>0.0002786999999955242</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3796,37 +3796,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0.1192571437934559</v>
       </c>
       <c r="F88">
-        <v>14.00759711056087</v>
+        <v>9.979202666364667</v>
       </c>
       <c r="G88">
-        <v>37.91586978311327</v>
+        <v>36.72838354664444</v>
       </c>
       <c r="H88">
-        <v>6.103232653720283</v>
+        <v>5.254245759393042</v>
       </c>
       <c r="Q88">
-        <v>0.04268394218924898</v>
+        <v>0.04249039814430076</v>
       </c>
       <c r="R88">
-        <v>0.2208351479988033</v>
+        <v>0.1449851292933183</v>
       </c>
       <c r="S88" t="s">
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.0002687000000491935</v>
+        <v>0.0002977999999984604</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3834,37 +3834,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>359.9255248958294</v>
       </c>
       <c r="F89">
-        <v>33.95718850501545</v>
+        <v>9.567640117111484</v>
       </c>
       <c r="G89">
-        <v>171.5833591200845</v>
+        <v>117.9191085516153</v>
       </c>
       <c r="H89">
-        <v>14.2745184769706</v>
+        <v>13.6987646196098</v>
       </c>
       <c r="Q89">
-        <v>0.04043395434034189</v>
+        <v>0.04341857633723974</v>
       </c>
       <c r="R89">
-        <v>0.1276353072544446</v>
+        <v>0.2273065627967756</v>
       </c>
       <c r="S89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T89">
-        <v>0.0002604000000019369</v>
+        <v>0.0004282000000017661</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3872,37 +3872,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>359.9786231391697</v>
       </c>
       <c r="F90">
-        <v>32.96576070987938</v>
+        <v>9.947324619575907</v>
       </c>
       <c r="G90">
-        <v>92.54007049552015</v>
+        <v>116.582737389619</v>
       </c>
       <c r="H90">
-        <v>9.754934884027721</v>
+        <v>9.009758315942904</v>
       </c>
       <c r="Q90">
-        <v>0.04273617029254206</v>
+        <v>0.04099690484271231</v>
       </c>
       <c r="R90">
-        <v>0.2224660004364589</v>
+        <v>0.0356343590367391</v>
       </c>
       <c r="S90" t="s">
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.0002987999999959357</v>
+        <v>0.000286100000010947</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3910,37 +3910,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>0.3387460053094221</v>
       </c>
       <c r="F91">
-        <v>26.12326271748701</v>
+        <v>9.721168823376383</v>
       </c>
       <c r="G91">
-        <v>57.52389724919632</v>
+        <v>91.03861757038901</v>
       </c>
       <c r="H91">
-        <v>5.164906493681978</v>
+        <v>5.602259401846958</v>
       </c>
       <c r="Q91">
-        <v>0.05350259618139937</v>
+        <v>0.05130075412985508</v>
       </c>
       <c r="R91">
-        <v>1.250474036967403</v>
+        <v>0.3516171495425583</v>
       </c>
       <c r="S91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T91">
-        <v>0.0002629999999612664</v>
+        <v>0.0002999000000016849</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3948,37 +3948,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0.04489733363986508</v>
       </c>
       <c r="F92">
-        <v>11.86109103373672</v>
+        <v>10.04968428022183</v>
       </c>
       <c r="G92">
-        <v>28.37463103859895</v>
+        <v>27.73531340725099</v>
       </c>
       <c r="H92">
-        <v>14.65763599284292</v>
+        <v>4.826492608625903</v>
       </c>
       <c r="Q92">
-        <v>0.04264196523696169</v>
+        <v>0.04200093768315675</v>
       </c>
       <c r="R92">
-        <v>0.04833843950110821</v>
+        <v>0.05773569889730627</v>
       </c>
       <c r="S92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T92">
-        <v>0.0002564999999776774</v>
+        <v>0.0003223000000076581</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3986,37 +3986,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0.1212242035469481</v>
       </c>
       <c r="F93">
-        <v>13.73386863832431</v>
+        <v>9.916978470960947</v>
       </c>
       <c r="G93">
-        <v>59.60974238244489</v>
+        <v>36.21713170877841</v>
       </c>
       <c r="H93">
-        <v>7.515432901144697</v>
+        <v>6.649871580758352</v>
       </c>
       <c r="Q93">
-        <v>0.03799026751109415</v>
+        <v>0.03777234534227545</v>
       </c>
       <c r="R93">
-        <v>0.2180032025669472</v>
+        <v>0.1524109657841033</v>
       </c>
       <c r="S93" t="s">
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.0004412000000115768</v>
+        <v>0.0005897000000061325</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4024,37 +4024,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>359.9539401516435</v>
       </c>
       <c r="F94">
-        <v>42.09803831409202</v>
+        <v>9.880365887865812</v>
       </c>
       <c r="G94">
-        <v>142.9003483316843</v>
+        <v>159.4648198861155</v>
       </c>
       <c r="H94">
-        <v>8.643315275398967</v>
+        <v>12.28446760773442</v>
       </c>
       <c r="Q94">
-        <v>0.04296881496025326</v>
+        <v>0.04032262703190907</v>
       </c>
       <c r="R94">
-        <v>0.301463943050918</v>
+        <v>0.06742052251440908</v>
       </c>
       <c r="S94" t="s">
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.0002776000000039858</v>
+        <v>0.0002805999999964115</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4062,37 +4062,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>359.6739603839313</v>
       </c>
       <c r="F95">
-        <v>32.12291818032313</v>
+        <v>10.22772915286536</v>
       </c>
       <c r="G95">
-        <v>108.9320959449897</v>
+        <v>108.8261246628782</v>
       </c>
       <c r="H95">
-        <v>8.095675315998083</v>
+        <v>11.36548879468483</v>
       </c>
       <c r="Q95">
-        <v>0.05134638949377075</v>
+        <v>0.04924939827642291</v>
       </c>
       <c r="R95">
-        <v>0.3326305192824234</v>
+        <v>0.2365301129186541</v>
       </c>
       <c r="S95" t="s">
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.0002565000000345208</v>
+        <v>0.0004835000000014134</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4100,37 +4100,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>359.8513093568973</v>
       </c>
       <c r="F96">
-        <v>36.42347561566843</v>
+        <v>10.1413917177783</v>
       </c>
       <c r="G96">
-        <v>106.8583344397079</v>
+        <v>129.2601783820576</v>
       </c>
       <c r="H96">
-        <v>11.64411991649821</v>
+        <v>10.52599246246185</v>
       </c>
       <c r="Q96">
-        <v>0.04213310925519416</v>
+        <v>0.04020814703680085</v>
       </c>
       <c r="R96">
-        <v>0.1939980932581931</v>
+        <v>0.1246367276302776</v>
       </c>
       <c r="S96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T96">
-        <v>0.0002882999999656022</v>
+        <v>0.0006436000000036302</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4138,37 +4138,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0.1328577799104965</v>
       </c>
       <c r="F97">
-        <v>14.89733825293156</v>
+        <v>9.938193804669774</v>
       </c>
       <c r="G97">
-        <v>34.21871791247992</v>
+        <v>41.29723156163653</v>
       </c>
       <c r="H97">
-        <v>13.08059627085557</v>
+        <v>5.064359776095867</v>
       </c>
       <c r="Q97">
-        <v>0.04216515594689055</v>
+        <v>0.04198077535052126</v>
       </c>
       <c r="R97">
-        <v>0.2204950018353252</v>
+        <v>0.1521766387999908</v>
       </c>
       <c r="S97" t="s">
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0002577000000201224</v>
+        <v>0.0003073000000028969</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4176,37 +4176,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>359.9860304450468</v>
       </c>
       <c r="F98">
-        <v>14.29784889165858</v>
+        <v>9.872725562868396</v>
       </c>
       <c r="G98">
-        <v>163.8561589854211</v>
+        <v>38.52305535223945</v>
       </c>
       <c r="H98">
-        <v>12.76688818693848</v>
+        <v>13.68726822595442</v>
       </c>
       <c r="Q98">
-        <v>0.04195430986259086</v>
+        <v>0.04183550044947595</v>
       </c>
       <c r="R98">
-        <v>0.1253627269373939</v>
+        <v>0.06846250613203912</v>
       </c>
       <c r="S98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T98">
-        <v>0.0002594000000044616</v>
+        <v>0.0002794999999906622</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4214,37 +4214,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>0.3502375502584012</v>
       </c>
       <c r="F99">
-        <v>43.04314748137488</v>
+        <v>9.748371343263557</v>
       </c>
       <c r="G99">
-        <v>180.2632580360122</v>
+        <v>151.0364527708005</v>
       </c>
       <c r="H99">
-        <v>17.06742725797948</v>
+        <v>14.11670963586021</v>
       </c>
       <c r="Q99">
-        <v>0.06538417203524198</v>
+        <v>0.06562758486058023</v>
       </c>
       <c r="R99">
-        <v>2.247875618192437</v>
+        <v>0.2289858883821771</v>
       </c>
       <c r="S99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T99">
-        <v>0.000267499999949905</v>
+        <v>0.0002781000000027234</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>359.9052565837468</v>
       </c>
       <c r="F100">
-        <v>35.67139863464283</v>
+        <v>9.835911142017595</v>
       </c>
       <c r="G100">
-        <v>100.0409796101889</v>
+        <v>131.6376533083077</v>
       </c>
       <c r="H100">
-        <v>7.455163137307223</v>
+        <v>9.613986760638225</v>
       </c>
       <c r="Q100">
-        <v>0.04834982084833549</v>
+        <v>0.04640109951732937</v>
       </c>
       <c r="R100">
-        <v>0.348986152727245</v>
+        <v>0.1043153107944637</v>
       </c>
       <c r="S100" t="s">
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.0002509999999915635</v>
+        <v>0.0002864000000073474</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4290,37 +4290,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0.0284717685403868</v>
       </c>
       <c r="F101">
-        <v>32.69270619862176</v>
+        <v>9.765520661851703</v>
       </c>
       <c r="G101">
-        <v>89.03436024411944</v>
+        <v>121.0296710742261</v>
       </c>
       <c r="H101">
-        <v>11.91164097037925</v>
+        <v>8.547567284448737</v>
       </c>
       <c r="Q101">
-        <v>0.04472075955471475</v>
+        <v>0.04244270300671672</v>
       </c>
       <c r="R101">
-        <v>0.4110077264104838</v>
+        <v>0.1340112542136587</v>
       </c>
       <c r="S101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T101">
-        <v>0.0002638999999931002</v>
+        <v>0.0002845000000064601</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.0002803999999514417</v>
+        <v>0.0005530000000000257</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <v>0.0002579999999170468</v>
+        <v>0.0002619000000017024</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>0.0002875000000130967</v>
+        <v>0.0002460000000006346</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0.0002687999999579915</v>
+        <v>0.0002753000000019767</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>0.0003064999999651263</v>
+        <v>0.0002627000000003932</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="L7">
-        <v>0.0002783999999564912</v>
+        <v>0.0002692000000017458</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>0.0002589000000625674</v>
+        <v>0.0002647000000024491</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0004026999999950931</v>
+        <v>0.0002721000000001084</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="L10">
-        <v>0.0002737000000934131</v>
+        <v>0.0002388999999993757</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="L11">
-        <v>0.0002791000000570421</v>
+        <v>0.0003295999999970434</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>П0_ист</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>V0_расч</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>Ка</t>
@@ -410,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +459,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -468,31 +480,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.6471895308065</v>
+        <v>-0.0624467920556877</v>
       </c>
       <c r="F2">
-        <v>10.03418043817184</v>
+        <v>10.1411174533689</v>
       </c>
       <c r="G2">
-        <v>98.20707847007661</v>
+        <v>11.85777555951022</v>
       </c>
       <c r="H2">
-        <v>11.86264591493346</v>
+        <v>-1.767860560578018</v>
       </c>
       <c r="I2">
-        <v>0.04761320993206206</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>0.1689009760145811</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>0.04856109551615696</v>
       </c>
       <c r="L2">
-        <v>0.0005530000000000257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1511699605779585</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.0003040999999939231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -506,31 +524,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.6751309272673</v>
+        <v>-0.05609123267994118</v>
       </c>
       <c r="F3">
-        <v>10.0753326825463</v>
+        <v>9.892466625919422</v>
       </c>
       <c r="G3">
-        <v>74.82390174653929</v>
+        <v>11.31650887706846</v>
       </c>
       <c r="H3">
-        <v>12.00010702878842</v>
+        <v>3.125253406392444</v>
       </c>
       <c r="I3">
-        <v>0.04451692396398665</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>0.1762548593538654</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>0.04946171571318376</v>
       </c>
       <c r="L3">
-        <v>0.0002619000000017024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.05222535879158256</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.0002610999999888008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -544,31 +568,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.08335156948109022</v>
+        <v>0.01449589041588521</v>
       </c>
       <c r="F4">
-        <v>9.961828019244917</v>
+        <v>9.964452503750667</v>
       </c>
       <c r="G4">
-        <v>79.40538299035853</v>
+        <v>3.156224213550427</v>
       </c>
       <c r="H4">
-        <v>3.216278257331518</v>
+        <v>0.5758397476646311</v>
       </c>
       <c r="I4">
-        <v>0.03992848114271191</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>0.1219620834081769</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>0.04269331093329314</v>
       </c>
       <c r="L4">
-        <v>0.0002460000000006346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.14327802765563</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>0.0002505000002201996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -582,31 +612,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>359.6422743053139</v>
+        <v>-0.06280814525180953</v>
       </c>
       <c r="F5">
-        <v>10.12813995939683</v>
+        <v>10.05964887493245</v>
       </c>
       <c r="G5">
-        <v>98.86388031267553</v>
+        <v>11.64594237139409</v>
       </c>
       <c r="H5">
-        <v>11.87630245870441</v>
+        <v>-1.784696958655323</v>
       </c>
       <c r="I5">
-        <v>0.0513829118970243</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>0.2000863929211603</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>0.05660502195953753</v>
       </c>
       <c r="L5">
-        <v>0.0002753000000019767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1128928899618046</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>0.0002291999999215477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -620,31 +656,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9898876585714</v>
+        <v>-0.001760217114332272</v>
       </c>
       <c r="F6">
-        <v>9.949566681995332</v>
+        <v>9.973260035053482</v>
       </c>
       <c r="G6">
-        <v>174.1048972954569</v>
+        <v>0.9828257305032546</v>
       </c>
       <c r="H6">
-        <v>9.503123511032625</v>
+        <v>-9.481123850649819</v>
       </c>
       <c r="I6">
-        <v>0.03718324329023417</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>0.028558383606351</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>0.03797382452417267</v>
       </c>
       <c r="L6">
-        <v>0.0002627000000003932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.01794837061241091</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>0.0001982000003408757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -658,31 +700,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.911754502623</v>
+        <v>-0.01525603095603987</v>
       </c>
       <c r="F7">
-        <v>9.805359044581314</v>
+        <v>9.905383512098034</v>
       </c>
       <c r="G7">
-        <v>39.62976290808216</v>
+        <v>8.585745210221765</v>
       </c>
       <c r="H7">
-        <v>13.30988842020289</v>
+        <v>10.29081186773688</v>
       </c>
       <c r="I7">
-        <v>0.04132375874171706</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>0.08854676328117955</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>0.03926686073678182</v>
       </c>
       <c r="L7">
-        <v>0.0002692000000017458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.02693482369449669</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002288999994561891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -696,31 +744,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.0623567346975076</v>
+        <v>0.01063689139006435</v>
       </c>
       <c r="F8">
-        <v>9.732866464682893</v>
+        <v>9.773583336633536</v>
       </c>
       <c r="G8">
-        <v>161.2665609897131</v>
+        <v>2.170567567323471</v>
       </c>
       <c r="H8">
-        <v>6.705708406711211</v>
+        <v>-6.388749043032349</v>
       </c>
       <c r="I8">
-        <v>0.03785498741097096</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>0.173439041579903</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>0.0383398500178067</v>
       </c>
       <c r="L8">
-        <v>0.0002647000000024491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1733552630355051</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.0002329999997527921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -734,31 +788,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.66189485924</v>
+        <v>-0.05609822408537799</v>
       </c>
       <c r="F9">
-        <v>9.538109939446697</v>
+        <v>9.506374740043253</v>
       </c>
       <c r="G9">
-        <v>13.43443473082257</v>
+        <v>2.974969795154728</v>
       </c>
       <c r="H9">
-        <v>12.94981189612835</v>
+        <v>12.44601240364211</v>
       </c>
       <c r="I9">
-        <v>0.04626776629890454</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>0.2885394468293601</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>0.04926436622271192</v>
       </c>
       <c r="L9">
-        <v>0.0002721000000001084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1077167609685478</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.0002114999997502309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -772,31 +832,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.981759056676</v>
+        <v>-0.00314139709004512</v>
       </c>
       <c r="F10">
-        <v>9.928929591694372</v>
+        <v>9.867296101769455</v>
       </c>
       <c r="G10">
-        <v>157.231856532907</v>
+        <v>5.569097700386862</v>
       </c>
       <c r="H10">
-        <v>14.49861170807448</v>
+        <v>-13.27150612540152</v>
       </c>
       <c r="I10">
-        <v>0.04454865446521965</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>0.03794846906734716</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>0.04469523591465053</v>
       </c>
       <c r="L10">
-        <v>0.0002388999999993757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.0692846070962348</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.000210000000151922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -810,28 +876,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9997782890575</v>
+        <v>-3.875039541714549E-05</v>
       </c>
       <c r="F11">
-        <v>10.01860103903902</v>
+        <v>10.01409351902816</v>
       </c>
       <c r="G11">
-        <v>1.775995200711086</v>
+        <v>0.2709630732866695</v>
       </c>
       <c r="H11">
-        <v>8.859519797835501</v>
+        <v>8.838409188527322</v>
       </c>
       <c r="I11">
-        <v>0.03950692669025228</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>0.05059746168772804</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>0.04218265918395078</v>
       </c>
       <c r="L11">
-        <v>0.0003295999999970434</v>
+        <v>0.07971390456574619</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.0002389000001130626</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -480,16 +480,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.0624467920556877</v>
+        <v>359.6471895308065</v>
       </c>
       <c r="F2">
-        <v>10.1411174533689</v>
+        <v>10.14130971841711</v>
       </c>
       <c r="G2">
-        <v>11.85777555951022</v>
+        <v>98.47969513567175</v>
       </c>
       <c r="H2">
-        <v>-1.767860560578018</v>
+        <v>11.98883531379779</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.0003040999999939231</v>
+        <v>0.000263200000000019</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -524,16 +524,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>-0.05609123267994118</v>
+        <v>359.6751309272673</v>
       </c>
       <c r="F3">
-        <v>9.892466625919422</v>
+        <v>9.892625645970496</v>
       </c>
       <c r="G3">
-        <v>11.31650887706846</v>
+        <v>74.56157082913612</v>
       </c>
       <c r="H3">
-        <v>3.125253406392444</v>
+        <v>11.74012700182314</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.0002610999999888008</v>
+        <v>0.0002315000000008283</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -568,16 +568,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.01449589041588521</v>
+        <v>0.08335156948109022</v>
       </c>
       <c r="F4">
-        <v>9.964452503750667</v>
+        <v>9.964463047768399</v>
       </c>
       <c r="G4">
-        <v>3.156224213550427</v>
+        <v>79.66035004945623</v>
       </c>
       <c r="H4">
-        <v>0.5758397476646311</v>
+        <v>3.20832397073495</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <v>0.0002505000002201996</v>
+        <v>0.0002349999999999852</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -612,16 +612,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-0.06280814525180953</v>
+        <v>359.6422743053139</v>
       </c>
       <c r="F5">
-        <v>10.05964887493245</v>
+        <v>10.05984494662018</v>
       </c>
       <c r="G5">
-        <v>11.64594237139409</v>
+        <v>98.71258182755622</v>
       </c>
       <c r="H5">
-        <v>-1.784696958655323</v>
+        <v>11.78189785017956</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.0002291999999215477</v>
+        <v>0.0002307000000003612</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -656,16 +656,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.001760217114332272</v>
+        <v>359.9898876585714</v>
       </c>
       <c r="F6">
-        <v>9.973260035053482</v>
+        <v>9.973260190387057</v>
       </c>
       <c r="G6">
-        <v>0.9828257305032546</v>
+        <v>174.0817823612951</v>
       </c>
       <c r="H6">
-        <v>-9.481123850649819</v>
+        <v>9.531928235561791</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="N6">
-        <v>0.0001982000003408757</v>
+        <v>0.0002556999999994147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -700,16 +700,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.01525603095603987</v>
+        <v>359.911754502623</v>
       </c>
       <c r="F7">
-        <v>9.905383512098034</v>
+        <v>9.905395260575123</v>
       </c>
       <c r="G7">
-        <v>8.585745210221765</v>
+        <v>39.83863910469874</v>
       </c>
       <c r="H7">
-        <v>10.29081186773688</v>
+        <v>13.40208303630448</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002288999994561891</v>
+        <v>0.0002570000000003958</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -744,16 +744,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.01063689139006435</v>
+        <v>0.0623567346975076</v>
       </c>
       <c r="F8">
-        <v>9.773583336633536</v>
+        <v>9.773589124859871</v>
       </c>
       <c r="G8">
-        <v>2.170567567323471</v>
+        <v>161.2348871925463</v>
       </c>
       <c r="H8">
-        <v>-6.388749043032349</v>
+        <v>6.747405271596133</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -771,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="N8">
-        <v>0.0002329999997527921</v>
+        <v>0.0005639000000003946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -788,16 +788,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-0.05609822408537799</v>
+        <v>359.66189485924</v>
       </c>
       <c r="F9">
-        <v>9.506374740043253</v>
+        <v>9.506540259677962</v>
       </c>
       <c r="G9">
-        <v>2.974969795154728</v>
+        <v>13.44316930717827</v>
       </c>
       <c r="H9">
-        <v>12.44601240364211</v>
+        <v>12.79662729134893</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0.0002114999997502309</v>
+        <v>0.0002418000000004028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -832,16 +832,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.00314139709004512</v>
+        <v>359.981759056676</v>
       </c>
       <c r="F10">
-        <v>9.867296101769455</v>
+        <v>9.867296601824147</v>
       </c>
       <c r="G10">
-        <v>5.569097700386862</v>
+        <v>157.235706876599</v>
       </c>
       <c r="H10">
-        <v>-13.27150612540152</v>
+        <v>14.39262741937775</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -859,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.000210000000151922</v>
+        <v>0.0002450999999998871</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -876,16 +876,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-3.875039541714549E-05</v>
+        <v>359.9997782890575</v>
       </c>
       <c r="F11">
-        <v>10.01409351902816</v>
+        <v>10.01409351910313</v>
       </c>
       <c r="G11">
-        <v>0.2709630732866695</v>
+        <v>1.755992399307212</v>
       </c>
       <c r="H11">
-        <v>8.838409188527322</v>
+        <v>8.84256173124786</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.0002389000001130626</v>
+        <v>0.0002247999999998029</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -416,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -492,25 +504,31 @@
         <v>11.98883531379779</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>70.5927118892036</v>
+      </c>
+      <c r="L2">
+        <v>16.26129853425527</v>
+      </c>
+      <c r="M2">
         <v>0.04856109551615696</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.1511699605779585</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.000263200000000019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.0002554000000145606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -536,25 +554,31 @@
         <v>11.74012700182314</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>53.11568595016745</v>
+      </c>
+      <c r="L3">
+        <v>18.37118438650728</v>
+      </c>
+      <c r="M3">
         <v>0.04946171571318376</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.05222535879158256</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0002315000000008283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002386000000171862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -580,25 +604,31 @@
         <v>3.20832397073495</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>31.73801361710144</v>
+      </c>
+      <c r="L4">
+        <v>9.452621010956776</v>
+      </c>
+      <c r="M4">
         <v>0.04269331093329314</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.14327802765563</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>0.0002349999999999852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>0.0002503000000046995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -624,25 +654,31 @@
         <v>11.78189785017956</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>70.63324259115807</v>
+      </c>
+      <c r="L5">
+        <v>15.98742165008776</v>
+      </c>
+      <c r="M5">
         <v>0.05660502195953753</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.1128928899618046</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>0.0002307000000003612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>0.0002518000000009124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -668,25 +704,31 @@
         <v>9.531928235561791</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>149.7135690724751</v>
+      </c>
+      <c r="L6">
+        <v>4.655913343617815</v>
+      </c>
+      <c r="M6">
         <v>0.03797382452417267</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.01794837061241091</v>
       </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>0.0002556999999994147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>0.0002343000000166739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -712,25 +754,31 @@
         <v>13.40208303630448</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>30.26208608811512</v>
+      </c>
+      <c r="L7">
+        <v>22.73628684435286</v>
+      </c>
+      <c r="M7">
         <v>0.03926686073678182</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.02693482369449669</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0002570000000003958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.0002509999999915635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -756,25 +804,31 @@
         <v>6.747405271596133</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.66167306370545</v>
+      </c>
+      <c r="L8">
+        <v>3.819873650082876</v>
+      </c>
+      <c r="M8">
         <v>0.0383398500178067</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.1733552630355051</v>
       </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>0.0005639000000003946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>0.0002355000000022756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -800,25 +854,31 @@
         <v>12.79662729134893</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>12.11354352931718</v>
+      </c>
+      <c r="L9">
+        <v>22.32226222816655</v>
+      </c>
+      <c r="M9">
         <v>0.04926436622271192</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.1077167609685478</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.0002418000000004028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>0.0002642999999977746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -844,25 +904,31 @@
         <v>14.39262741937775</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>137.8568318736043</v>
+      </c>
+      <c r="L10">
+        <v>11.69955320723102</v>
+      </c>
+      <c r="M10">
         <v>0.04469523591465053</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.0692846070962348</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0002450999999998871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.0002215999999748419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -888,22 +954,28 @@
         <v>8.84256173124786</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>4.748637294072358</v>
+      </c>
+      <c r="L11">
+        <v>18.06583355309</v>
+      </c>
+      <c r="M11">
         <v>0.04218265918395078</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.07971390456574619</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002247999999998029</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0002033000000096763</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.2.xlsx
+++ b/tests/tests8/N 0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
   <si>
     <t>П0_ист</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.0002554000000145606</v>
+        <v>0.0002307999999970889</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -575,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002386000000171862</v>
+        <v>0.0002468000000135362</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -625,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="P4">
-        <v>0.0002503000000046995</v>
+        <v>0.0002403999999955886</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -675,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="P5">
-        <v>0.0002518000000009124</v>
+        <v>0.000206300000002102</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -725,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="P6">
-        <v>0.0002343000000166739</v>
+        <v>0.0002391999999815653</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -775,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.0002509999999915635</v>
+        <v>0.0002766000000065105</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -825,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="P8">
-        <v>0.0002355000000022756</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -875,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>0.0002642999999977746</v>
+        <v>0.0002275000000224736</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -925,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.0002215999999748419</v>
+        <v>0.0001942000000099142</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -975,7 +987,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0002033000000096763</v>
+        <v>0.0001944999999921038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.7336826991741</v>
+      </c>
+      <c r="F12">
+        <v>10.05250338837868</v>
+      </c>
+      <c r="G12">
+        <v>135.475641446725</v>
+      </c>
+      <c r="H12">
+        <v>3.293356029045148</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>40.14254447800037</v>
+      </c>
+      <c r="L12">
+        <v>6.041556534919326</v>
+      </c>
+      <c r="M12">
+        <v>0.04296019376297367</v>
+      </c>
+      <c r="N12">
+        <v>0.2128442703379929</v>
+      </c>
+      <c r="O12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>0.0001959000000226752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>359.650109051739</v>
+      </c>
+      <c r="F13">
+        <v>9.709786667988105</v>
+      </c>
+      <c r="G13">
+        <v>30.07436986176982</v>
+      </c>
+      <c r="H13">
+        <v>3.710427603459473</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.97983175519105</v>
+      </c>
+      <c r="L13">
+        <v>11.44526617218514</v>
+      </c>
+      <c r="M13">
+        <v>0.05257613285859619</v>
+      </c>
+      <c r="N13">
+        <v>0.4754807621749562</v>
+      </c>
+      <c r="O13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <v>0.0001993999999854168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.905402833702</v>
+      </c>
+      <c r="F14">
+        <v>9.909511322578766</v>
+      </c>
+      <c r="G14">
+        <v>27.59790483591908</v>
+      </c>
+      <c r="H14">
+        <v>12.0062663602293</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>21.31727738043228</v>
+      </c>
+      <c r="L14">
+        <v>21.53474677107624</v>
+      </c>
+      <c r="M14">
+        <v>0.04178933985695224</v>
+      </c>
+      <c r="N14">
+        <v>0.03737495889083743</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>0.0002333999999848402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0.1424781324101231</v>
+      </c>
+      <c r="F15">
+        <v>9.780644625378823</v>
+      </c>
+      <c r="G15">
+        <v>140.8311334481338</v>
+      </c>
+      <c r="H15">
+        <v>5.622467236498747</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>70.48815127068258</v>
+      </c>
+      <c r="L15">
+        <v>5.788638307044706</v>
+      </c>
+      <c r="M15">
+        <v>0.03740383658168989</v>
+      </c>
+      <c r="N15">
+        <v>0.2020110740353413</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15">
+        <v>0.0002040999999906035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>359.6897321777494</v>
+      </c>
+      <c r="F16">
+        <v>9.941521624759888</v>
+      </c>
+      <c r="G16">
+        <v>92.03291601272451</v>
+      </c>
+      <c r="H16">
+        <v>12.40573252645158</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>66.97627682231635</v>
+      </c>
+      <c r="L16">
+        <v>17.37844333858942</v>
+      </c>
+      <c r="M16">
+        <v>0.05330090361735657</v>
+      </c>
+      <c r="N16">
+        <v>0.06023448689807256</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>0.0002063999999961652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.06246569630870719</v>
+      </c>
+      <c r="F17">
+        <v>9.877867422749816</v>
+      </c>
+      <c r="G17">
+        <v>153.3618207863907</v>
+      </c>
+      <c r="H17">
+        <v>5.044358944269133</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>64.58561324292029</v>
+      </c>
+      <c r="L17">
+        <v>4.312554903430184</v>
+      </c>
+      <c r="M17">
+        <v>0.04086161727813425</v>
+      </c>
+      <c r="N17">
+        <v>0.1248566746412931</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0001911000000234253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.9744102557732</v>
+      </c>
+      <c r="F18">
+        <v>9.845040997146215</v>
+      </c>
+      <c r="G18">
+        <v>39.97131427329973</v>
+      </c>
+      <c r="H18">
+        <v>9.110419354715336</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>27.68645556725797</v>
+      </c>
+      <c r="L18">
+        <v>17.6249764531337</v>
+      </c>
+      <c r="M18">
+        <v>0.03450512148171662</v>
+      </c>
+      <c r="N18">
+        <v>0.0942537385401124</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0001940999999874293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9447468219957</v>
+      </c>
+      <c r="F19">
+        <v>9.880241998245985</v>
+      </c>
+      <c r="G19">
+        <v>52.74435091936877</v>
+      </c>
+      <c r="H19">
+        <v>9.29941678888396</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>35.61668144354299</v>
+      </c>
+      <c r="L19">
+        <v>17.24550273372851</v>
+      </c>
+      <c r="M19">
+        <v>0.0416875810123901</v>
+      </c>
+      <c r="N19">
+        <v>0.05523732085024403</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.0002226999999948021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9841143112387</v>
+      </c>
+      <c r="F20">
+        <v>9.82804986598477</v>
+      </c>
+      <c r="G20">
+        <v>117.0104692822024</v>
+      </c>
+      <c r="H20">
+        <v>8.851247008856861</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>77.34014580162908</v>
+      </c>
+      <c r="L20">
+        <v>10.89555967748764</v>
+      </c>
+      <c r="M20">
+        <v>0.04182936639864954</v>
+      </c>
+      <c r="N20">
+        <v>0.1018553309501791</v>
+      </c>
+      <c r="O20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0.0001905000000022028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9557993474635</v>
+      </c>
+      <c r="F21">
+        <v>9.833273079625155</v>
+      </c>
+      <c r="G21">
+        <v>17.37386134473545</v>
+      </c>
+      <c r="H21">
+        <v>12.05766433389167</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>14.61682512578571</v>
+      </c>
+      <c r="L21">
+        <v>21.72923606336403</v>
+      </c>
+      <c r="M21">
+        <v>0.0395226768011312</v>
+      </c>
+      <c r="N21">
+        <v>0.05012642914646445</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.0002023000000122011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.8232213774765</v>
+      </c>
+      <c r="F22">
+        <v>9.753616424167225</v>
+      </c>
+      <c r="G22">
+        <v>105.5384595926453</v>
+      </c>
+      <c r="H22">
+        <v>13.4317000327876</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>80.39992354874786</v>
+      </c>
+      <c r="L22">
+        <v>16.90605566923301</v>
+      </c>
+      <c r="M22">
+        <v>0.04442467774632011</v>
+      </c>
+      <c r="N22">
+        <v>0.1256487866028357</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22">
+        <v>0.0001992000000257121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0.01039284990110188</v>
+      </c>
+      <c r="F23">
+        <v>10.05058927882487</v>
+      </c>
+      <c r="G23">
+        <v>8.854089687563501</v>
+      </c>
+      <c r="H23">
+        <v>6.408949178622671</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.906959384592408</v>
+      </c>
+      <c r="L23">
+        <v>15.21681767053373</v>
+      </c>
+      <c r="M23">
+        <v>0.04087758509353919</v>
+      </c>
+      <c r="N23">
+        <v>0.03288392229788155</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.0001959999999883166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.01838998397303894</v>
+      </c>
+      <c r="F24">
+        <v>9.990342627302512</v>
+      </c>
+      <c r="G24">
+        <v>37.65054832273015</v>
+      </c>
+      <c r="H24">
+        <v>8.64469882373084</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>25.72585452287925</v>
+      </c>
+      <c r="L24">
+        <v>17.3023014387054</v>
+      </c>
+      <c r="M24">
+        <v>0.04445654401036553</v>
+      </c>
+      <c r="N24">
+        <v>0.0609936571997582</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.0002179999999896154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.8666023887293</v>
+      </c>
+      <c r="F25">
+        <v>9.739541682607488</v>
+      </c>
+      <c r="G25">
+        <v>92.83795632732267</v>
+      </c>
+      <c r="H25">
+        <v>13.98111427792225</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>70.63616685453992</v>
+      </c>
+      <c r="L25">
+        <v>18.97808886441937</v>
+      </c>
+      <c r="M25">
+        <v>0.04023628346359451</v>
+      </c>
+      <c r="N25">
+        <v>0.1250740682551568</v>
+      </c>
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0.0001884000000131891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.7341575654701</v>
+      </c>
+      <c r="F26">
+        <v>9.928121907339424</v>
+      </c>
+      <c r="G26">
+        <v>172.5268449663976</v>
+      </c>
+      <c r="H26">
+        <v>11.3192910154115</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>154.8443167105451</v>
+      </c>
+      <c r="L26">
+        <v>6.801169510940499</v>
+      </c>
+      <c r="M26">
+        <v>0.07185528301179779</v>
+      </c>
+      <c r="N26">
+        <v>0.06546297694925088</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0001924999999971533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.9543453820668</v>
+      </c>
+      <c r="F27">
+        <v>9.911445649108979</v>
+      </c>
+      <c r="G27">
+        <v>156.5996937496432</v>
+      </c>
+      <c r="H27">
+        <v>9.876345087186579</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>121.3931430589483</v>
+      </c>
+      <c r="L27">
+        <v>6.876016626334158</v>
+      </c>
+      <c r="M27">
+        <v>0.04455684932786393</v>
+      </c>
+      <c r="N27">
+        <v>0.04629762710736927</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0.0001876000000038403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.960801357668</v>
+      </c>
+      <c r="F28">
+        <v>9.915660140305535</v>
+      </c>
+      <c r="G28">
+        <v>55.32245230481703</v>
+      </c>
+      <c r="H28">
+        <v>9.149790277708114</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>36.96000385868257</v>
+      </c>
+      <c r="L28">
+        <v>16.95289594448412</v>
+      </c>
+      <c r="M28">
+        <v>0.03926177570825571</v>
+      </c>
+      <c r="N28">
+        <v>0.04520115782457614</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.000198100000005752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.7428789169535</v>
+      </c>
+      <c r="F29">
+        <v>9.881260696130449</v>
+      </c>
+      <c r="G29">
+        <v>76.29409692891811</v>
+      </c>
+      <c r="H29">
+        <v>12.779721892753</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>55.78101350609234</v>
+      </c>
+      <c r="L29">
+        <v>19.37985361091204</v>
+      </c>
+      <c r="M29">
+        <v>0.04661349281318675</v>
+      </c>
+      <c r="N29">
+        <v>0.02144579492699653</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0.0002389999999934389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.910733524426</v>
+      </c>
+      <c r="F30">
+        <v>9.970045812123569</v>
+      </c>
+      <c r="G30">
+        <v>131.053060949958</v>
+      </c>
+      <c r="H30">
+        <v>9.724397016238152</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>91.78490769839554</v>
+      </c>
+      <c r="L30">
+        <v>9.959574330804216</v>
+      </c>
+      <c r="M30">
+        <v>0.039802224252806</v>
+      </c>
+      <c r="N30">
+        <v>0.01341712934436076</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.0002136999999891032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0.08349642526091273</v>
+      </c>
+      <c r="F31">
+        <v>9.78135777969309</v>
+      </c>
+      <c r="G31">
+        <v>156.072673769279</v>
+      </c>
+      <c r="H31">
+        <v>6.198940533079623</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>85.02793662795595</v>
+      </c>
+      <c r="L31">
+        <v>4.217560312584907</v>
+      </c>
+      <c r="M31">
+        <v>0.04188553113170726</v>
+      </c>
+      <c r="N31">
+        <v>0.177189391605833</v>
+      </c>
+      <c r="O31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31">
+        <v>0.0001919999999984157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.2528105329552826</v>
+      </c>
+      <c r="F32">
+        <v>9.563476701775045</v>
+      </c>
+      <c r="G32">
+        <v>116.4663118230489</v>
+      </c>
+      <c r="H32">
+        <v>6.990152075297268</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>69.80186671751568</v>
+      </c>
+      <c r="L32">
+        <v>9.293216906443273</v>
+      </c>
+      <c r="M32">
+        <v>0.04475796468344541</v>
+      </c>
+      <c r="N32">
+        <v>0.347330115749335</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32">
+        <v>0.0001900000000034652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.08295144285031669</v>
+      </c>
+      <c r="F33">
+        <v>9.754936228526038</v>
+      </c>
+      <c r="G33">
+        <v>51.18847820132329</v>
+      </c>
+      <c r="H33">
+        <v>14.03410326036061</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>38.95905824982606</v>
+      </c>
+      <c r="L33">
+        <v>22.75449220438597</v>
+      </c>
+      <c r="M33">
+        <v>0.04206118221005591</v>
+      </c>
+      <c r="N33">
+        <v>0.1631439059767664</v>
+      </c>
+      <c r="O33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>0.0001961000000108015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0.06977889019788849</v>
+      </c>
+      <c r="F34">
+        <v>9.657807252226288</v>
+      </c>
+      <c r="G34">
+        <v>155.134687513402</v>
+      </c>
+      <c r="H34">
+        <v>7.091652942782342</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>98.12516253696516</v>
+      </c>
+      <c r="L34">
+        <v>4.808822664727737</v>
+      </c>
+      <c r="M34">
+        <v>0.04190276183067508</v>
+      </c>
+      <c r="N34">
+        <v>0.2269729715708123</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34">
+        <v>0.0002147999999806416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.06377070102162243</v>
+      </c>
+      <c r="F35">
+        <v>9.901513045572571</v>
+      </c>
+      <c r="G35">
+        <v>44.72494225380269</v>
+      </c>
+      <c r="H35">
+        <v>8.16985406302731</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>29.55421561703395</v>
+      </c>
+      <c r="L35">
+        <v>16.38219306606151</v>
+      </c>
+      <c r="M35">
+        <v>0.03895892996996083</v>
+      </c>
+      <c r="N35">
+        <v>0.1160684981652844</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0.0002175000000192995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9512329798744</v>
+      </c>
+      <c r="F36">
+        <v>9.929813739168626</v>
+      </c>
+      <c r="G36">
+        <v>6.939803110624677</v>
+      </c>
+      <c r="H36">
+        <v>12.26241678942148</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>7.638844471270184</v>
+      </c>
+      <c r="L36">
+        <v>22.11681361630708</v>
+      </c>
+      <c r="M36">
+        <v>0.03874603629522357</v>
+      </c>
+      <c r="N36">
+        <v>0.03547620456188782</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.0002110000000072887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>0.3779473420175646</v>
+      </c>
+      <c r="F37">
+        <v>9.755362969550983</v>
+      </c>
+      <c r="G37">
+        <v>83.54917471318264</v>
+      </c>
+      <c r="H37">
+        <v>6.185254872658558</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>47.20131878703121</v>
+      </c>
+      <c r="L37">
+        <v>11.7344730482721</v>
+      </c>
+      <c r="M37">
+        <v>0.05421114174209563</v>
+      </c>
+      <c r="N37">
+        <v>0.3347668989715989</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37">
+        <v>0.000194100000015851</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.8647173468491</v>
+      </c>
+      <c r="F38">
+        <v>9.913231315722269</v>
+      </c>
+      <c r="G38">
+        <v>130.8993448757397</v>
+      </c>
+      <c r="H38">
+        <v>10.14202393708718</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>93.71362849183015</v>
+      </c>
+      <c r="L38">
+        <v>10.36796990561518</v>
+      </c>
+      <c r="M38">
+        <v>0.04832987924814661</v>
+      </c>
+      <c r="N38">
+        <v>0.04480697706765975</v>
+      </c>
+      <c r="O38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38">
+        <v>0.000190599999996266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.01089272246750185</v>
+      </c>
+      <c r="F39">
+        <v>9.863456837061909</v>
+      </c>
+      <c r="G39">
+        <v>170.1842554017841</v>
+      </c>
+      <c r="H39">
+        <v>8.40919389084746</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>132.9870262815407</v>
+      </c>
+      <c r="L39">
+        <v>3.954366809777525</v>
+      </c>
+      <c r="M39">
+        <v>0.03930865360734306</v>
+      </c>
+      <c r="N39">
+        <v>0.1099265878686124</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.00022179999999139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.7982588703766</v>
+      </c>
+      <c r="F40">
+        <v>9.91782720075355</v>
+      </c>
+      <c r="G40">
+        <v>69.05438448567857</v>
+      </c>
+      <c r="H40">
+        <v>13.3280518449277</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>50.99198682612213</v>
+      </c>
+      <c r="L40">
+        <v>20.68357573704277</v>
+      </c>
+      <c r="M40">
+        <v>0.04541910726476232</v>
+      </c>
+      <c r="N40">
+        <v>0.01669941389811158</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0002171999999802665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.7190320867956</v>
+      </c>
+      <c r="F41">
+        <v>9.909249423818155</v>
+      </c>
+      <c r="G41">
+        <v>98.03969721820825</v>
+      </c>
+      <c r="H41">
+        <v>12.59170443820971</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>72.14938911201467</v>
+      </c>
+      <c r="L41">
+        <v>16.89682628219603</v>
+      </c>
+      <c r="M41">
+        <v>0.05079701500438444</v>
+      </c>
+      <c r="N41">
+        <v>0.0263638771453283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0.0001953999999955158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0.1215095394422438</v>
+      </c>
+      <c r="F42">
+        <v>9.956144183554484</v>
+      </c>
+      <c r="G42">
+        <v>74.1180998021498</v>
+      </c>
+      <c r="H42">
+        <v>3.542017889992569</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>31.83753312763193</v>
+      </c>
+      <c r="L42">
+        <v>10.00875397868601</v>
+      </c>
+      <c r="M42">
+        <v>0.04056733674672053</v>
+      </c>
+      <c r="N42">
+        <v>0.1522617266903001</v>
+      </c>
+      <c r="O42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42">
+        <v>0.0001953000000014526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.05414246461346952</v>
+      </c>
+      <c r="F43">
+        <v>9.948448025681978</v>
+      </c>
+      <c r="G43">
+        <v>45.44613465973115</v>
+      </c>
+      <c r="H43">
+        <v>3.429977009956582</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>21.92192007254808</v>
+      </c>
+      <c r="L43">
+        <v>11.01631421917942</v>
+      </c>
+      <c r="M43">
+        <v>0.04026934773865654</v>
+      </c>
+      <c r="N43">
+        <v>0.1368681440663754</v>
+      </c>
+      <c r="O43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>0.0001953000000014526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>359.9006571693977</v>
+      </c>
+      <c r="F44">
+        <v>9.845585863745722</v>
+      </c>
+      <c r="G44">
+        <v>67.25057374640096</v>
+      </c>
+      <c r="H44">
+        <v>14.19804201045434</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>50.67280252660141</v>
+      </c>
+      <c r="L44">
+        <v>21.8031371264479</v>
+      </c>
+      <c r="M44">
+        <v>0.04061472232505094</v>
+      </c>
+      <c r="N44">
+        <v>0.07371428619178159</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0.0002458999999817024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.948520014931</v>
+      </c>
+      <c r="F45">
+        <v>9.849463048967007</v>
+      </c>
+      <c r="G45">
+        <v>20.46088323441991</v>
+      </c>
+      <c r="H45">
+        <v>10.29008357716395</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>16.24373822231364</v>
+      </c>
+      <c r="L45">
+        <v>19.58395126854952</v>
+      </c>
+      <c r="M45">
+        <v>0.03970141631545838</v>
+      </c>
+      <c r="N45">
+        <v>0.04040480707049642</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002352999999857275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.1501229434511689</v>
+      </c>
+      <c r="F46">
+        <v>9.899638903435921</v>
+      </c>
+      <c r="G46">
+        <v>151.775690059728</v>
+      </c>
+      <c r="H46">
+        <v>4.188506517778003</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>51.38021897998765</v>
+      </c>
+      <c r="L46">
+        <v>4.573642784351192</v>
+      </c>
+      <c r="M46">
+        <v>0.04314177939821143</v>
+      </c>
+      <c r="N46">
+        <v>0.162617453436141</v>
+      </c>
+      <c r="O46" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46">
+        <v>0.0002235000000041509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9947250454301</v>
+      </c>
+      <c r="F47">
+        <v>9.972723994813373</v>
+      </c>
+      <c r="G47">
+        <v>178.0500442458974</v>
+      </c>
+      <c r="H47">
+        <v>9.561904173410547</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>159.2214591405757</v>
+      </c>
+      <c r="L47">
+        <v>4.397284601796203</v>
+      </c>
+      <c r="M47">
+        <v>0.03788917551116409</v>
+      </c>
+      <c r="N47">
+        <v>0.02482647947804018</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47">
+        <v>0.000216899999998077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.8830248320259</v>
+      </c>
+      <c r="F48">
+        <v>9.963984938752814</v>
+      </c>
+      <c r="G48">
+        <v>140.9251771121549</v>
+      </c>
+      <c r="H48">
+        <v>10.59456071822124</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.3884889588602</v>
+      </c>
+      <c r="L48">
+        <v>9.504607396271444</v>
+      </c>
+      <c r="M48">
+        <v>0.04471895150030723</v>
+      </c>
+      <c r="N48">
+        <v>0.02066257490830747</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0.0003085999999825617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.1696018951532245</v>
+      </c>
+      <c r="F49">
+        <v>10.00472700097761</v>
+      </c>
+      <c r="G49">
+        <v>20.38401311077034</v>
+      </c>
+      <c r="H49">
+        <v>14.13119309164726</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>16.97283165727318</v>
+      </c>
+      <c r="L49">
+        <v>24.34421890065455</v>
+      </c>
+      <c r="M49">
+        <v>0.04152457850462883</v>
+      </c>
+      <c r="N49">
+        <v>0.1561089455394647</v>
+      </c>
+      <c r="O49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <v>0.0002242999999850781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0.1987262639856959</v>
+      </c>
+      <c r="F50">
+        <v>10.23030031935905</v>
+      </c>
+      <c r="G50">
+        <v>2.804572094797822</v>
+      </c>
+      <c r="H50">
+        <v>12.82364256656874</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>4.871475400777187</v>
+      </c>
+      <c r="L50">
+        <v>23.06714124565251</v>
+      </c>
+      <c r="M50">
+        <v>0.04441835848830177</v>
+      </c>
+      <c r="N50">
+        <v>0.2524697474658468</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50">
+        <v>0.0001967999999976655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>0.2086318156413209</v>
+      </c>
+      <c r="F51">
+        <v>9.890262680665847</v>
+      </c>
+      <c r="G51">
+        <v>54.52665269021045</v>
+      </c>
+      <c r="H51">
+        <v>5.642981379173124</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>30.96005516035896</v>
+      </c>
+      <c r="L51">
+        <v>13.06495991511153</v>
+      </c>
+      <c r="M51">
+        <v>0.0404103709828779</v>
+      </c>
+      <c r="N51">
+        <v>0.2269484570189952</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51">
+        <v>0.0002246000000241111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>0.3120704217367269</v>
+      </c>
+      <c r="F52">
+        <v>9.77275232168264</v>
+      </c>
+      <c r="G52">
+        <v>90.12983825578526</v>
+      </c>
+      <c r="H52">
+        <v>5.3449088351203</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>46.92156074657959</v>
+      </c>
+      <c r="L52">
+        <v>10.45640002001629</v>
+      </c>
+      <c r="M52">
+        <v>0.04812933446333793</v>
+      </c>
+      <c r="N52">
+        <v>0.3106398796024746</v>
+      </c>
+      <c r="O52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>0.0002073999999936404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.05810063466972768</v>
+      </c>
+      <c r="F53">
+        <v>9.916932148086536</v>
+      </c>
+      <c r="G53">
+        <v>122.0020193502842</v>
+      </c>
+      <c r="H53">
+        <v>3.466819244588701</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>42.73717981994392</v>
+      </c>
+      <c r="L53">
+        <v>6.93813049883289</v>
+      </c>
+      <c r="M53">
+        <v>0.03954282803392037</v>
+      </c>
+      <c r="N53">
+        <v>0.1084409786095079</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.0002609000000006745</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.8961048318772</v>
+      </c>
+      <c r="F54">
+        <v>10.04092832770446</v>
+      </c>
+      <c r="G54">
+        <v>146.8219183021191</v>
+      </c>
+      <c r="H54">
+        <v>3.327272270861725</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>39.26261105930991</v>
+      </c>
+      <c r="L54">
+        <v>5.273134338116556</v>
+      </c>
+      <c r="M54">
+        <v>0.0376086765241995</v>
+      </c>
+      <c r="N54">
+        <v>0.09080642879291309</v>
+      </c>
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>0.0002534999999852516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.9588270266299</v>
+      </c>
+      <c r="F55">
+        <v>9.801472252583153</v>
+      </c>
+      <c r="G55">
+        <v>152.4241826002264</v>
+      </c>
+      <c r="H55">
+        <v>9.482132193783755</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.2794280147283</v>
+      </c>
+      <c r="L55">
+        <v>7.054784228536175</v>
+      </c>
+      <c r="M55">
+        <v>0.04614012626681444</v>
+      </c>
+      <c r="N55">
+        <v>0.1059128846228274</v>
+      </c>
+      <c r="O55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>0.0002307999999970889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.3704421489225846</v>
+      </c>
+      <c r="F56">
+        <v>9.72855616999057</v>
+      </c>
+      <c r="G56">
+        <v>76.26301029035008</v>
+      </c>
+      <c r="H56">
+        <v>6.790034243750581</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>45.31948982389786</v>
+      </c>
+      <c r="L56">
+        <v>12.86614599641842</v>
+      </c>
+      <c r="M56">
+        <v>0.04749912525863714</v>
+      </c>
+      <c r="N56">
+        <v>0.3359513212151985</v>
+      </c>
+      <c r="O56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56">
+        <v>0.0002489000000025499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>0.3247462229268011</v>
+      </c>
+      <c r="F57">
+        <v>10.14911725339459</v>
+      </c>
+      <c r="G57">
+        <v>16.76910573854925</v>
+      </c>
+      <c r="H57">
+        <v>13.77724233966718</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>14.39888301119551</v>
+      </c>
+      <c r="L57">
+        <v>24.11988696450114</v>
+      </c>
+      <c r="M57">
+        <v>0.04648675010555581</v>
+      </c>
+      <c r="N57">
+        <v>0.22339424399976</v>
+      </c>
+      <c r="O57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <v>0.0002470999999957257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.207528635100521</v>
+      </c>
+      <c r="F58">
+        <v>9.493777620844964</v>
+      </c>
+      <c r="G58">
+        <v>178.740105948859</v>
+      </c>
+      <c r="H58">
+        <v>6.503544102517946</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>123.9024616661107</v>
+      </c>
+      <c r="L58">
+        <v>1.65838155351631</v>
+      </c>
+      <c r="M58">
+        <v>0.09244759532797728</v>
+      </c>
+      <c r="N58">
+        <v>0.7914337694593239</v>
+      </c>
+      <c r="O58" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58">
+        <v>0.0002321000000051754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0.02621043146937827</v>
+      </c>
+      <c r="F59">
+        <v>9.911444831093217</v>
+      </c>
+      <c r="G59">
+        <v>15.42500345476853</v>
+      </c>
+      <c r="H59">
+        <v>5.73943922316245</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>12.17701913939089</v>
+      </c>
+      <c r="L59">
+        <v>14.25505339490243</v>
+      </c>
+      <c r="M59">
+        <v>0.044060957562022</v>
+      </c>
+      <c r="N59">
+        <v>0.04672400846554739</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>0.0002176000000133627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.1520372292349083</v>
+      </c>
+      <c r="F60">
+        <v>9.769247972127969</v>
+      </c>
+      <c r="G60">
+        <v>65.53724977344338</v>
+      </c>
+      <c r="H60">
+        <v>8.049112659048301</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>41.84745366046314</v>
+      </c>
+      <c r="L60">
+        <v>14.97150800512967</v>
+      </c>
+      <c r="M60">
+        <v>0.03939256695755689</v>
+      </c>
+      <c r="N60">
+        <v>0.2011662299297939</v>
+      </c>
+      <c r="O60" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60">
+        <v>0.0002040999999906035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.3338567042789481</v>
+      </c>
+      <c r="F61">
+        <v>9.642518539369199</v>
+      </c>
+      <c r="G61">
+        <v>169.4200626181033</v>
+      </c>
+      <c r="H61">
+        <v>4.681049858475219</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>56.32946515104197</v>
+      </c>
+      <c r="L61">
+        <v>2.713172509180645</v>
+      </c>
+      <c r="M61">
+        <v>0.05877435044235858</v>
+      </c>
+      <c r="N61">
+        <v>0.4835650910696515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>0.0002460999999982505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0.1843541986426154</v>
+      </c>
+      <c r="F62">
+        <v>9.981932025573817</v>
+      </c>
+      <c r="G62">
+        <v>54.99971911824438</v>
+      </c>
+      <c r="H62">
+        <v>4.992428214575042</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>29.49464032326309</v>
+      </c>
+      <c r="L62">
+        <v>12.41011853367753</v>
+      </c>
+      <c r="M62">
+        <v>0.0467538359809044</v>
+      </c>
+      <c r="N62">
+        <v>0.191553223453601</v>
+      </c>
+      <c r="O62" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62">
+        <v>0.0002455000000054497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.08629911031195799</v>
+      </c>
+      <c r="F63">
+        <v>9.87979186059267</v>
+      </c>
+      <c r="G63">
+        <v>149.0615103479692</v>
+      </c>
+      <c r="H63">
+        <v>5.07006137390381</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>64.63361509611595</v>
+      </c>
+      <c r="L63">
+        <v>4.77349189869785</v>
+      </c>
+      <c r="M63">
+        <v>0.04247809072530514</v>
+      </c>
+      <c r="N63">
+        <v>0.1219577733805826</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0002264000000025135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.002465085260736356</v>
+      </c>
+      <c r="F64">
+        <v>10.02000695014784</v>
+      </c>
+      <c r="G64">
+        <v>6.044439481809278</v>
+      </c>
+      <c r="H64">
+        <v>8.758607546765289</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>7.269289829182252</v>
+      </c>
+      <c r="L64">
+        <v>18.00022004256591</v>
+      </c>
+      <c r="M64">
+        <v>0.03598353340038338</v>
+      </c>
+      <c r="N64">
+        <v>0.04641346601823092</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0001980000000116888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>0.4277957307036171</v>
+      </c>
+      <c r="F65">
+        <v>9.553993300715891</v>
+      </c>
+      <c r="G65">
+        <v>100.5405490985276</v>
+      </c>
+      <c r="H65">
+        <v>7.027322260950593</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>60.49253050578362</v>
+      </c>
+      <c r="L65">
+        <v>10.95297057725285</v>
+      </c>
+      <c r="M65">
+        <v>0.05365534376084243</v>
+      </c>
+      <c r="N65">
+        <v>0.4249613258468997</v>
+      </c>
+      <c r="O65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <v>0.0001895999999987907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>359.7799354121537</v>
+      </c>
+      <c r="F66">
+        <v>9.938386291195156</v>
+      </c>
+      <c r="G66">
+        <v>67.81221981744832</v>
+      </c>
+      <c r="H66">
+        <v>9.932711957722249</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>45.82563754224047</v>
+      </c>
+      <c r="L66">
+        <v>16.96674298627545</v>
+      </c>
+      <c r="M66">
+        <v>0.05005478179317598</v>
+      </c>
+      <c r="N66">
+        <v>0.05855728232867221</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0001900000000034652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.1667329646265426</v>
+      </c>
+      <c r="F67">
+        <v>9.997016555150323</v>
+      </c>
+      <c r="G67">
+        <v>40.06818440525165</v>
+      </c>
+      <c r="H67">
+        <v>3.151578830734872</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>19.477419767205</v>
+      </c>
+      <c r="L67">
+        <v>10.89850517110768</v>
+      </c>
+      <c r="M67">
+        <v>0.0418358397929235</v>
+      </c>
+      <c r="N67">
+        <v>0.2487924601820474</v>
+      </c>
+      <c r="O67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P67">
+        <v>0.0002125999999975647</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.7168771271872</v>
+      </c>
+      <c r="F68">
+        <v>9.787949924308863</v>
+      </c>
+      <c r="G68">
+        <v>26.88954020639115</v>
+      </c>
+      <c r="H68">
+        <v>4.940674499805638</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.97621557145671</v>
+      </c>
+      <c r="L68">
+        <v>13.02688820991652</v>
+      </c>
+      <c r="M68">
+        <v>0.04657724270497155</v>
+      </c>
+      <c r="N68">
+        <v>0.2317113841249109</v>
+      </c>
+      <c r="O68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P68">
+        <v>0.0002072999999995773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>359.7742955695559</v>
+      </c>
+      <c r="F69">
+        <v>9.870212414895754</v>
+      </c>
+      <c r="G69">
+        <v>97.86599819588855</v>
+      </c>
+      <c r="H69">
+        <v>13.23007622517744</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>73.22738953881694</v>
+      </c>
+      <c r="L69">
+        <v>17.60734309280222</v>
+      </c>
+      <c r="M69">
+        <v>0.04740115020632314</v>
+      </c>
+      <c r="N69">
+        <v>0.05313133752464626</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0.0001977000000010776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0.1888952728743358</v>
+      </c>
+      <c r="F70">
+        <v>9.984147016974127</v>
+      </c>
+      <c r="G70">
+        <v>48.18239438205082</v>
+      </c>
+      <c r="H70">
+        <v>3.217125809299715</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>22.31528877451316</v>
+      </c>
+      <c r="L70">
+        <v>10.74662895623696</v>
+      </c>
+      <c r="M70">
+        <v>0.04459687037175512</v>
+      </c>
+      <c r="N70">
+        <v>0.3379866113070698</v>
+      </c>
+      <c r="O70" t="s">
+        <v>18</v>
+      </c>
+      <c r="P70">
+        <v>0.000214499999998452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.8168985802904</v>
+      </c>
+      <c r="F71">
+        <v>9.777978951237438</v>
+      </c>
+      <c r="G71">
+        <v>52.8882849341107</v>
+      </c>
+      <c r="H71">
+        <v>12.61655158382892</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>39.03393062646062</v>
+      </c>
+      <c r="L71">
+        <v>20.97976889606139</v>
+      </c>
+      <c r="M71">
+        <v>0.04613680729225567</v>
+      </c>
+      <c r="N71">
+        <v>0.06628518012782833</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0001962000000048647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.8298005183396</v>
+      </c>
+      <c r="F72">
+        <v>9.947148174201212</v>
+      </c>
+      <c r="G72">
+        <v>166.787392405407</v>
+      </c>
+      <c r="H72">
+        <v>13.40645250415657</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>149.9586589218208</v>
+      </c>
+      <c r="L72">
+        <v>9.623979616263513</v>
+      </c>
+      <c r="M72">
+        <v>0.05286485443348367</v>
+      </c>
+      <c r="N72">
+        <v>0.03920917396455809</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0.0002353000000141492</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.08612062994596124</v>
+      </c>
+      <c r="F73">
+        <v>9.974466675351247</v>
+      </c>
+      <c r="G73">
+        <v>33.51949234347898</v>
+      </c>
+      <c r="H73">
+        <v>7.395059027379363</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>22.41243672434605</v>
+      </c>
+      <c r="L73">
+        <v>15.96211349365775</v>
+      </c>
+      <c r="M73">
+        <v>0.03987078521070363</v>
+      </c>
+      <c r="N73">
+        <v>0.1273175674820877</v>
+      </c>
+      <c r="O73" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73">
+        <v>0.0001964999999870543</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9362909001869</v>
+      </c>
+      <c r="F74">
+        <v>9.879795123154107</v>
+      </c>
+      <c r="G74">
+        <v>19.07128612177245</v>
+      </c>
+      <c r="H74">
+        <v>11.23633415979996</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>15.54450624415381</v>
+      </c>
+      <c r="L74">
+        <v>20.7665365389806</v>
+      </c>
+      <c r="M74">
+        <v>0.04093033322719886</v>
+      </c>
+      <c r="N74">
+        <v>0.02265343993217936</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.0001966000000095391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.884637389738</v>
+      </c>
+      <c r="F75">
+        <v>10.04329350740831</v>
+      </c>
+      <c r="G75">
+        <v>115.5008360776976</v>
+      </c>
+      <c r="H75">
+        <v>9.568167248595117</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>77.82654205257577</v>
+      </c>
+      <c r="L75">
+        <v>11.7783155618961</v>
+      </c>
+      <c r="M75">
+        <v>0.03806236579800703</v>
+      </c>
+      <c r="N75">
+        <v>0.04996472400047101</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0001865000000123018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.8783309012385</v>
+      </c>
+      <c r="F76">
+        <v>9.858966079321753</v>
+      </c>
+      <c r="G76">
+        <v>36.19795518558949</v>
+      </c>
+      <c r="H76">
+        <v>12.35262185831652</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>27.27997278177507</v>
+      </c>
+      <c r="L76">
+        <v>21.60786543464094</v>
+      </c>
+      <c r="M76">
+        <v>0.03797701128290293</v>
+      </c>
+      <c r="N76">
+        <v>0.04354606249502881</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.0001922999999806052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0.1419004267952209</v>
+      </c>
+      <c r="F77">
+        <v>9.935994741489148</v>
+      </c>
+      <c r="G77">
+        <v>104.0463886751418</v>
+      </c>
+      <c r="H77">
+        <v>3.670643986913388</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>41.18029422930381</v>
+      </c>
+      <c r="L77">
+        <v>8.304792653619199</v>
+      </c>
+      <c r="M77">
+        <v>0.04178206696981641</v>
+      </c>
+      <c r="N77">
+        <v>0.1749895017860895</v>
+      </c>
+      <c r="O77" t="s">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0.0002228999999829284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.8119397378562</v>
+      </c>
+      <c r="F78">
+        <v>9.858679246657175</v>
+      </c>
+      <c r="G78">
+        <v>55.70551883563923</v>
+      </c>
+      <c r="H78">
+        <v>12.79712149923388</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>41.01592522831593</v>
+      </c>
+      <c r="L78">
+        <v>21.06598044729798</v>
+      </c>
+      <c r="M78">
+        <v>0.04150234454998802</v>
+      </c>
+      <c r="N78">
+        <v>0.02653829191136941</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.0001943000000039774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.9551110295849</v>
+      </c>
+      <c r="F79">
+        <v>9.922818955187836</v>
+      </c>
+      <c r="G79">
+        <v>165.4184996257019</v>
+      </c>
+      <c r="H79">
+        <v>10.60706805651986</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>138.9332998990405</v>
+      </c>
+      <c r="L79">
+        <v>6.647763609349828</v>
+      </c>
+      <c r="M79">
+        <v>0.04091965067806121</v>
+      </c>
+      <c r="N79">
+        <v>0.03822418494906549</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0002041000000190252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9755907725551</v>
+      </c>
+      <c r="F80">
+        <v>10.00703435361024</v>
+      </c>
+      <c r="G80">
+        <v>8.690763157756283</v>
+      </c>
+      <c r="H80">
+        <v>10.95233030591557</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>8.790937422095473</v>
+      </c>
+      <c r="L80">
+        <v>20.62485424515919</v>
+      </c>
+      <c r="M80">
+        <v>0.04077648601109339</v>
+      </c>
+      <c r="N80">
+        <v>0.07040614697997426</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0001936999999827549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>0.6632717641540169</v>
+      </c>
+      <c r="F81">
+        <v>9.373638481832577</v>
+      </c>
+      <c r="G81">
+        <v>90.84392552206049</v>
+      </c>
+      <c r="H81">
+        <v>7.486585488441015</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>57.15667249141523</v>
+      </c>
+      <c r="L81">
+        <v>12.21425883366147</v>
+      </c>
+      <c r="M81">
+        <v>0.07614607027817613</v>
+      </c>
+      <c r="N81">
+        <v>0.583090042255402</v>
+      </c>
+      <c r="O81" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81">
+        <v>0.0001900000000034652</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.6200294127704</v>
+      </c>
+      <c r="F82">
+        <v>10.12244098339773</v>
+      </c>
+      <c r="G82">
+        <v>93.6494738063641</v>
+      </c>
+      <c r="H82">
+        <v>11.77461080816374</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>66.51425574234135</v>
+      </c>
+      <c r="L82">
+        <v>16.57749770285634</v>
+      </c>
+      <c r="M82">
+        <v>0.05016218231738648</v>
+      </c>
+      <c r="N82">
+        <v>0.1418295740524412</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0002159000000006017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.2719800684437436</v>
+      </c>
+      <c r="F83">
+        <v>9.931321118301465</v>
+      </c>
+      <c r="G83">
+        <v>64.71876997008481</v>
+      </c>
+      <c r="H83">
+        <v>6.737065892995736</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>38.37912716523647</v>
+      </c>
+      <c r="L83">
+        <v>13.73535833879875</v>
+      </c>
+      <c r="M83">
+        <v>0.04451437187486821</v>
+      </c>
+      <c r="N83">
+        <v>0.2054732339922641</v>
+      </c>
+      <c r="O83" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83">
+        <v>0.0002007999999875665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.8318699194488</v>
+      </c>
+      <c r="F84">
+        <v>9.866631634820076</v>
+      </c>
+      <c r="G84">
+        <v>49.15869731303072</v>
+      </c>
+      <c r="H84">
+        <v>10.72430295452537</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>34.77291648550499</v>
+      </c>
+      <c r="L84">
+        <v>19.07214928381348</v>
+      </c>
+      <c r="M84">
+        <v>0.04527545711697514</v>
+      </c>
+      <c r="N84">
+        <v>0.03653438361403308</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0001949999999908414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.8301374227926</v>
+      </c>
+      <c r="F85">
+        <v>9.825011417632199</v>
+      </c>
+      <c r="G85">
+        <v>45.90062190612802</v>
+      </c>
+      <c r="H85">
+        <v>11.18350235810414</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>33.07924031047209</v>
+      </c>
+      <c r="L85">
+        <v>19.74873568551329</v>
+      </c>
+      <c r="M85">
+        <v>0.04269939475954682</v>
+      </c>
+      <c r="N85">
+        <v>0.04161036163168628</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0001998999999841544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.02632244039511911</v>
+      </c>
+      <c r="F86">
+        <v>9.937339968085908</v>
+      </c>
+      <c r="G86">
+        <v>8.094181835808817</v>
+      </c>
+      <c r="H86">
+        <v>7.449353704819901</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>8.558471922546792</v>
+      </c>
+      <c r="L86">
+        <v>16.35324951345915</v>
+      </c>
+      <c r="M86">
+        <v>0.04511349707196317</v>
+      </c>
+      <c r="N86">
+        <v>0.02671948191416003</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>0.0001945000000205255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.9646298557842</v>
+      </c>
+      <c r="F87">
+        <v>9.891630796498438</v>
+      </c>
+      <c r="G87">
+        <v>111.4841549875948</v>
+      </c>
+      <c r="H87">
+        <v>8.991560506139713</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>73.47833530951148</v>
+      </c>
+      <c r="L87">
+        <v>11.68706019245334</v>
+      </c>
+      <c r="M87">
+        <v>0.04188506150165373</v>
+      </c>
+      <c r="N87">
+        <v>0.06725886579916754</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>0.00022999999998774</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0.1192571437934559</v>
+      </c>
+      <c r="F88">
+        <v>9.980671560491867</v>
+      </c>
+      <c r="G88">
+        <v>36.86991993801227</v>
+      </c>
+      <c r="H88">
+        <v>5.219413816442157</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>21.79837120063531</v>
+      </c>
+      <c r="L88">
+        <v>13.32791756889547</v>
+      </c>
+      <c r="M88">
+        <v>0.04203870544385478</v>
+      </c>
+      <c r="N88">
+        <v>0.1839110628797135</v>
+      </c>
+      <c r="O88" t="s">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>0.0002073999999936404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.9255248958294</v>
+      </c>
+      <c r="F89">
+        <v>9.405196232868056</v>
+      </c>
+      <c r="G89">
+        <v>117.8330943814563</v>
+      </c>
+      <c r="H89">
+        <v>13.41198080676791</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>92.69923104467999</v>
+      </c>
+      <c r="L89">
+        <v>15.40776543091826</v>
+      </c>
+      <c r="M89">
+        <v>0.04623053147673597</v>
+      </c>
+      <c r="N89">
+        <v>0.3147545765232285</v>
+      </c>
+      <c r="O89" t="s">
+        <v>18</v>
+      </c>
+      <c r="P89">
+        <v>0.0001876000000038403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9786231391697</v>
+      </c>
+      <c r="F90">
+        <v>9.931573717478486</v>
+      </c>
+      <c r="G90">
+        <v>116.4704137526915</v>
+      </c>
+      <c r="H90">
+        <v>9.005495122246773</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>77.02200008006173</v>
+      </c>
+      <c r="L90">
+        <v>11.12459226415578</v>
+      </c>
+      <c r="M90">
+        <v>0.04069901402244686</v>
+      </c>
+      <c r="N90">
+        <v>0.04736188491205298</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>0.0001878000000203883</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.3387460053094221</v>
+      </c>
+      <c r="F91">
+        <v>9.761691099438332</v>
+      </c>
+      <c r="G91">
+        <v>91.0702677416425</v>
+      </c>
+      <c r="H91">
+        <v>5.636956968050709</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>48.70708373732422</v>
+      </c>
+      <c r="L91">
+        <v>10.63602970242085</v>
+      </c>
+      <c r="M91">
+        <v>0.04914451661252838</v>
+      </c>
+      <c r="N91">
+        <v>0.3299195776406292</v>
+      </c>
+      <c r="O91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P91">
+        <v>0.0001981999999998152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0.04489733363986508</v>
+      </c>
+      <c r="F92">
+        <v>9.921248554631218</v>
+      </c>
+      <c r="G92">
+        <v>27.28795454425492</v>
+      </c>
+      <c r="H92">
+        <v>4.777598440421766</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>17.06587230780361</v>
+      </c>
+      <c r="L92">
+        <v>12.97112816684881</v>
+      </c>
+      <c r="M92">
+        <v>0.04348041437052117</v>
+      </c>
+      <c r="N92">
+        <v>0.1128971864403572</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0002229000000113501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0.1212242035469481</v>
+      </c>
+      <c r="F93">
+        <v>9.935671090070475</v>
+      </c>
+      <c r="G93">
+        <v>36.30851290893489</v>
+      </c>
+      <c r="H93">
+        <v>6.653872972403813</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>23.2866321103557</v>
+      </c>
+      <c r="L93">
+        <v>14.97338994016688</v>
+      </c>
+      <c r="M93">
+        <v>0.03958536851793037</v>
+      </c>
+      <c r="N93">
+        <v>0.1679594042736626</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>0.0001943000000039774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.9539401516435</v>
+      </c>
+      <c r="F94">
+        <v>9.977454486575935</v>
+      </c>
+      <c r="G94">
+        <v>159.431114830313</v>
+      </c>
+      <c r="H94">
+        <v>12.43354669223835</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>135.8963764166076</v>
+      </c>
+      <c r="L94">
+        <v>9.202299015137918</v>
+      </c>
+      <c r="M94">
+        <v>0.03700227393275902</v>
+      </c>
+      <c r="N94">
+        <v>0.01124876829361408</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.0001914000000056149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.6739603839313</v>
+      </c>
+      <c r="F95">
+        <v>10.12271883509539</v>
+      </c>
+      <c r="G95">
+        <v>108.73281488452</v>
+      </c>
+      <c r="H95">
+        <v>11.22156855579219</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>77.07663668191807</v>
+      </c>
+      <c r="L95">
+        <v>14.22573558257456</v>
+      </c>
+      <c r="M95">
+        <v>0.0453766960257146</v>
+      </c>
+      <c r="N95">
+        <v>0.1328634920772543</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.0001871999999991658</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.8513093568973</v>
+      </c>
+      <c r="F96">
+        <v>9.997991702762189</v>
+      </c>
+      <c r="G96">
+        <v>129.2008636792655</v>
+      </c>
+      <c r="H96">
+        <v>10.33522625162872</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>92.43382519139426</v>
+      </c>
+      <c r="L96">
+        <v>10.76517266809874</v>
+      </c>
+      <c r="M96">
+        <v>0.04325708550515107</v>
+      </c>
+      <c r="N96">
+        <v>0.04370324467638656</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0.0001862999999957538</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0.1328577799104965</v>
+      </c>
+      <c r="F97">
+        <v>9.976647354153837</v>
+      </c>
+      <c r="G97">
+        <v>41.50833087168881</v>
+      </c>
+      <c r="H97">
+        <v>5.069408322493368</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>23.6778053763172</v>
+      </c>
+      <c r="L97">
+        <v>13.01108276311812</v>
+      </c>
+      <c r="M97">
+        <v>0.03962574558352151</v>
+      </c>
+      <c r="N97">
+        <v>0.1627100935377951</v>
+      </c>
+      <c r="O97" t="s">
+        <v>16</v>
+      </c>
+      <c r="P97">
+        <v>0.000219199999975217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.9860304450468</v>
+      </c>
+      <c r="F98">
+        <v>9.850289082353477</v>
+      </c>
+      <c r="G98">
+        <v>38.49423220124429</v>
+      </c>
+      <c r="H98">
+        <v>13.65432801103053</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>29.53987532252987</v>
+      </c>
+      <c r="L98">
+        <v>23.05499376951708</v>
+      </c>
+      <c r="M98">
+        <v>0.03985318486924364</v>
+      </c>
+      <c r="N98">
+        <v>0.09314880010165089</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0.0001962999999989279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.3502375502584012</v>
+      </c>
+      <c r="F99">
+        <v>9.806872050208398</v>
+      </c>
+      <c r="G99">
+        <v>151.0081063425326</v>
+      </c>
+      <c r="H99">
+        <v>14.22569369777804</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>129.1628274356559</v>
+      </c>
+      <c r="L99">
+        <v>12.25812714994927</v>
+      </c>
+      <c r="M99">
+        <v>0.06984022374475775</v>
+      </c>
+      <c r="N99">
+        <v>0.1563905831657706</v>
+      </c>
+      <c r="O99" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99">
+        <v>0.0001881999999966411</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.9052565837468</v>
+      </c>
+      <c r="F100">
+        <v>9.904928988189909</v>
+      </c>
+      <c r="G100">
+        <v>131.621956941096</v>
+      </c>
+      <c r="H100">
+        <v>9.707944567412358</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>92.60786733394245</v>
+      </c>
+      <c r="L100">
+        <v>9.87283476944233</v>
+      </c>
+      <c r="M100">
+        <v>0.04710883921590367</v>
+      </c>
+      <c r="N100">
+        <v>0.0548663501913383</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0.0001878999999860298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0.0284717685403868</v>
+      </c>
+      <c r="F101">
+        <v>9.781344125697252</v>
+      </c>
+      <c r="G101">
+        <v>121.030964061766</v>
+      </c>
+      <c r="H101">
+        <v>8.569852754698717</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>79.43013183669898</v>
+      </c>
+      <c r="L101">
+        <v>10.15980011179067</v>
+      </c>
+      <c r="M101">
+        <v>0.03979086519699814</v>
+      </c>
+      <c r="N101">
+        <v>0.1423670249194381</v>
+      </c>
+      <c r="O101" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101">
+        <v>0.000189900000009402</v>
       </c>
     </row>
   </sheetData>
